--- a/AAII_Financials/Quarterly/NC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>NC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>26900</v>
+      </c>
+      <c r="F8" s="3">
         <v>32600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>41400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>40100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>39100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>31400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>33700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>31200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>26400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>21900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>28100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>28300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>111100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>32400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>24100</v>
+      </c>
+      <c r="F9" s="3">
         <v>26400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>32700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>26700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>25500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>25300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>28800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>25800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>21100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>19500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>23500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>23700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>99000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F10" s="3">
         <v>6200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>8700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>13400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>13600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>6100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>4900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>5400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>5300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>4600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>4600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>12100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -983,55 +1022,61 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>1000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>17400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>800</v>
+      </c>
+      <c r="E15" s="3">
+        <v>400</v>
+      </c>
+      <c r="F15" s="3">
         <v>700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>600</v>
-      </c>
-      <c r="G15" s="3">
-        <v>800</v>
-      </c>
-      <c r="H15" s="3">
-        <v>700</v>
       </c>
       <c r="I15" s="3">
         <v>800</v>
@@ -1040,25 +1085,31 @@
         <v>700</v>
       </c>
       <c r="K15" s="3">
+        <v>800</v>
+      </c>
+      <c r="L15" s="3">
+        <v>700</v>
+      </c>
+      <c r="M15" s="3">
         <v>500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>2500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>22300</v>
+      </c>
+      <c r="F17" s="3">
         <v>23900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>32200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>23700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>23500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>20900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>25900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>21500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>19900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>15000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>18600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>18500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>112700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F18" s="3">
         <v>8700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>9200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>16400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>15600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>10500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>7800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>9700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>6500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>6900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>9500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>9800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,101 +1243,115 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>3200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F21" s="3">
         <v>11700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>10400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>21400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>19100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>14900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>11900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>13000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>9600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>10100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>12700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>12900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>10700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
@@ -1281,125 +1360,143 @@
         <v>200</v>
       </c>
       <c r="G22" s="3">
+        <v>200</v>
+      </c>
+      <c r="H22" s="3">
+        <v>200</v>
+      </c>
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
-      </c>
-      <c r="I22" s="3">
-        <v>600</v>
-      </c>
-      <c r="J22" s="3">
-        <v>600</v>
       </c>
       <c r="K22" s="3">
         <v>600</v>
       </c>
       <c r="L22" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M22" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="N22" s="3">
         <v>900</v>
       </c>
       <c r="O22" s="3">
+        <v>900</v>
+      </c>
+      <c r="P22" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q22" s="3">
         <v>4300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F23" s="3">
         <v>11600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>9800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>17300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>14900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>10700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>7600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>9000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>5800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>6000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>8600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>8800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-6700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-13700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F24" s="3">
         <v>1400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>2300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>3900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>2600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-9600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F26" s="3">
         <v>10300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>8000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>15000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>11000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>9200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>6400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>8200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>6500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>3300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>7200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>8200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>3000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F27" s="3">
         <v>10300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>8000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>15000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>11000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>9200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>6400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>8200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>6500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>3300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>7200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>8200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>3000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1588,11 +1709,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1601,25 +1722,31 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>3600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>5100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>-4100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-3200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>26700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F33" s="3">
         <v>10300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>8000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>15000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>11000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>9200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>6400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>8200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>10200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>8400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>3100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>5000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>29600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F35" s="3">
         <v>10300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>8000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>15000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>11000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>9200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>6400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>8200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>10200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>8400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>3100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>5000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>29600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>93700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>122900</v>
+      </c>
+      <c r="F41" s="3">
         <v>115100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>98400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>79100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>85300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>83100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>80000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>83400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>101600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>93900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>60200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>56400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>69300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,316 +2234,364 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>42100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>21900</v>
+      </c>
+      <c r="F43" s="3">
         <v>19600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>26300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>28100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>28800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>24500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>30600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>35700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>34500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>32000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>96300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>93200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>20800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>105000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>40500</v>
+      </c>
+      <c r="F44" s="3">
         <v>33100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>30900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>32800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>31200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>33200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>29200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>30100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>30000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>30600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>163800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>159000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>157300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>201300</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>15500</v>
+      </c>
+      <c r="F45" s="3">
         <v>12500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>20000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>24000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>18900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>10800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>12700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>13100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>10800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>7700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>23700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>22300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>262700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>188900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>200700</v>
+      </c>
+      <c r="F46" s="3">
         <v>180300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>175600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>164000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>164200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>151500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>152400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>162300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>177000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>164200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>344000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>330900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>381700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>384200</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E47" s="3">
+        <v>24600</v>
+      </c>
+      <c r="F47" s="3">
         <v>23100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>22400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>23300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>20100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>20000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>18400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>18700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>16300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>27300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>27300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>35900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>31100</v>
       </c>
-      <c r="P47" s="3" t="s">
+      <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>150700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>149500</v>
+      </c>
+      <c r="F48" s="3">
         <v>141300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>134400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>138300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>124600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>126100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>123600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>119800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>120100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>116300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>132100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>132200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>115100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>124600</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>37900</v>
+      </c>
+      <c r="F49" s="3">
         <v>38300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>39000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>39900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>40500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>41300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>42100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>42900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>43600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>44000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>57300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>58300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>51900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>32100</v>
+      </c>
+      <c r="F52" s="3">
         <v>29800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>27800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>28300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>27700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>27700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>29500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>30500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>32600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>33000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>60600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>63100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>94500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>435900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>444800</v>
+      </c>
+      <c r="F54" s="3">
         <v>412800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>399200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>393800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>377000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>366500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>366000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>374200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>389600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>384900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>621300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>620300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>668000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>664100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F57" s="3">
         <v>9000</v>
-      </c>
-      <c r="E57" s="3">
-        <v>7700</v>
-      </c>
-      <c r="F57" s="3">
-        <v>8200</v>
       </c>
       <c r="G57" s="3">
         <v>7700</v>
       </c>
       <c r="H57" s="3">
+        <v>8200</v>
+      </c>
+      <c r="I57" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J57" s="3">
         <v>9700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>9100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>8200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>7600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>8500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>104800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>87100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>7000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>157300</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>4500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>4600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>4700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>10600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>13000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>16100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>16100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>23500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>32700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>44800</v>
+      </c>
+      <c r="F59" s="3">
         <v>43400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>41000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>36800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>29800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>23900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>23800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>16600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>30300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>33600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>57800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>47400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>228100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>62000</v>
+      </c>
+      <c r="F60" s="3">
         <v>52800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>53200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>49600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>42200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>44200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>45900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>40800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>54000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>43200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>186000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>167200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>221800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>229500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F61" s="3">
         <v>7300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>7500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>7400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>6400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>6800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>14900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>34700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>42000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>57600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>99900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>125300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>94300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>130500</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>81300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>76300</v>
+      </c>
+      <c r="F62" s="3">
         <v>69500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>66400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>72500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>77700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>75300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>74200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>73800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>74100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>77100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>104300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>103200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>131600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>107800</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>129500</v>
+        <v>142100</v>
       </c>
       <c r="E66" s="3">
-        <v>127000</v>
+        <v>155400</v>
       </c>
       <c r="F66" s="3">
         <v>129500</v>
       </c>
       <c r="G66" s="3">
+        <v>127000</v>
+      </c>
+      <c r="H66" s="3">
+        <v>129500</v>
+      </c>
+      <c r="I66" s="3">
         <v>126300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>126300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>135000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>149300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>170100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>177900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>390300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>395800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>447700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>467800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>289700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>284900</v>
+      </c>
+      <c r="F72" s="3">
         <v>279800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>270900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>264200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>250400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>239800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>231800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>226500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>216500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>207400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>248200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>242400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>239400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>214700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>293800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>289400</v>
+      </c>
+      <c r="F76" s="3">
         <v>283300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>272200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>264300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>250700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>240200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>231000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>224900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>219400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>207100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>231000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>224500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>220300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>196300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F81" s="3">
         <v>10300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>8000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>15000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>11000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>9200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>6400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>8200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>10200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>8400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>3100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>5000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>29600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3642,38 +4039,44 @@
       <c r="F83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G83" s="3">
-        <v>3700</v>
-      </c>
-      <c r="H83" s="3">
-        <v>3800</v>
+      <c r="G83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I83" s="3">
         <v>3700</v>
       </c>
       <c r="J83" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K83" s="3">
+        <v>3700</v>
+      </c>
+      <c r="L83" s="3">
         <v>3400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>3200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>4400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>4500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>19300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F89" s="3">
         <v>25200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>22600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>15800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>20200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>26700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-8000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>14200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>31100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>40700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-36400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>99400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-7300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-4300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-6300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-5500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-6700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-6500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-3500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-2300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-8100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-26300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-10300</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-4200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-5000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-5100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-6200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-2100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-4400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-4600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-2200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-3800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-9800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4160,13 +4627,13 @@
         <v>-1300</v>
       </c>
       <c r="F96" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="H96" s="3">
         <v>-1200</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-1100</v>
       </c>
       <c r="I96" s="3">
         <v>-1100</v>
@@ -4178,22 +4645,28 @@
         <v>-1100</v>
       </c>
       <c r="L96" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-1900</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-7300</v>
       </c>
       <c r="P96" s="3">
         <v>-1800</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="R96" s="3">
+        <v>-1800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-5700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-8600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-11900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-24000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-8100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-2200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>12600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-34200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>21500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-55700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-17900</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4401,59 +4898,71 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="N101" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O101" s="3">
         <v>-300</v>
       </c>
       <c r="P101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F102" s="3">
         <v>16600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>19400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-6200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>2200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>3100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-3500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-18200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>7700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>39100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>4000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-18500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>33600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>21400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>NC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E8" s="3">
         <v>37600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>26900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>32600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>41400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>40100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>39100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>31400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>33700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>31200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>26400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>21900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>28100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>28300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>111100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>32400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E9" s="3">
         <v>32600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>24100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>26400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>32700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>26700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>25500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>25300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>28800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>25800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>21100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>19500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>23500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>23700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>99000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E10" s="3">
         <v>5000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>13400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>13600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2400</v>
-      </c>
-      <c r="O10" s="3">
-        <v>4600</v>
       </c>
       <c r="P10" s="3">
         <v>4600</v>
       </c>
       <c r="Q10" s="3">
+        <v>4600</v>
+      </c>
+      <c r="R10" s="3">
         <v>12100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1028,11 +1048,11 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1040,26 +1060,29 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>1000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>17400</v>
       </c>
       <c r="R14" s="3">
         <v>17400</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1067,49 +1090,52 @@
         <v>800</v>
       </c>
       <c r="E15" s="3">
+        <v>800</v>
+      </c>
+      <c r="F15" s="3">
         <v>400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>400</v>
-      </c>
-      <c r="O15" s="3">
-        <v>600</v>
       </c>
       <c r="P15" s="3">
         <v>600</v>
       </c>
       <c r="Q15" s="3">
+        <v>600</v>
+      </c>
+      <c r="R15" s="3">
         <v>2500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E17" s="3">
         <v>30100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>22300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>32200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>23700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>23500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>20900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>25900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>19900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>18600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>18500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>112700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E18" s="3">
         <v>7500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>8700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>16400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>15600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>9700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>9500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>9800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,116 +1278,123 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-100</v>
       </c>
       <c r="M20" s="3">
         <v>-100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E21" s="3">
         <v>11000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>11700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>10400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>21400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>19100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>14900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>13000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>10100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>12700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>12900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>10700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
-      </c>
-      <c r="E22" s="3">
-        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
@@ -1366,13 +1406,13 @@
         <v>200</v>
       </c>
       <c r="I22" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>400</v>
       </c>
       <c r="K22" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L22" s="3">
         <v>600</v>
@@ -1381,7 +1421,7 @@
         <v>600</v>
       </c>
       <c r="N22" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="O22" s="3">
         <v>900</v>
@@ -1390,113 +1430,122 @@
         <v>900</v>
       </c>
       <c r="Q22" s="3">
+        <v>900</v>
+      </c>
+      <c r="R22" s="3">
         <v>4300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E23" s="3">
         <v>6100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>11600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>9800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>17300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>14900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>10700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>8600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>8800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-13700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-9600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E26" s="3">
         <v>6200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>6400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>10300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>15000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>11000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>9200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>8200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E27" s="3">
         <v>6200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>10300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>15000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>11000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>9200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>8200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1715,8 +1776,8 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1728,25 +1789,28 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>3600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>5100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-4100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>26700</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
-      </c>
-      <c r="L32" s="3">
-        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E33" s="3">
         <v>6200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>10300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>15000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>11000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>9200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>10200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>8400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>29600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E35" s="3">
         <v>6200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>10300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>15000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>11000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>9200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>10200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>8400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>29600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>95500</v>
+      </c>
+      <c r="E41" s="3">
         <v>93700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>122900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>115100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>98400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>79100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>85300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>83100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>80000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>83400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>101600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>93900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>60200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>56400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>69300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,358 +2330,382 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>40300</v>
+      </c>
+      <c r="E43" s="3">
         <v>42100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>21900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>19600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>26300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>28100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>28800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>24500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>30600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>35700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>34500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>32000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>96300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>93200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>20800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>105000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E44" s="3">
         <v>36000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>40500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>33100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>30900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>32800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>31200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>33200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>29200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>30100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>30000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>30600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>163800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>159000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>157300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>201300</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E45" s="3">
         <v>17100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>20000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>24000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>18900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>23700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>22300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>262700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>190700</v>
+      </c>
+      <c r="E46" s="3">
         <v>188900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>200700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>180300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>175600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>164000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>164200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>151500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>152400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>162300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>177000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>164200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>344000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>330900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>381700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>384200</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E47" s="3">
         <v>27400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>24600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>23100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>22400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>23300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>20100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>20000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>18400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>18700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>16300</v>
-      </c>
-      <c r="N47" s="3">
-        <v>27300</v>
       </c>
       <c r="O47" s="3">
         <v>27300</v>
       </c>
       <c r="P47" s="3">
+        <v>27300</v>
+      </c>
+      <c r="Q47" s="3">
         <v>35900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>31100</v>
       </c>
-      <c r="R47" s="3" t="s">
+      <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>154000</v>
+      </c>
+      <c r="E48" s="3">
         <v>150700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>149500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>141300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>134400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>138300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>124600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>126100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>123600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>119800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>120100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>116300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>132100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>132200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>115100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>124600</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E49" s="3">
         <v>37100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>37900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>38300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>39000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>39900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>40500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>41300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>42100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>42900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>43600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>44000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>57300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>58300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>51900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E52" s="3">
         <v>31800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>32100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>29800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>27800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>28300</v>
-      </c>
-      <c r="I52" s="3">
-        <v>27700</v>
       </c>
       <c r="J52" s="3">
         <v>27700</v>
       </c>
       <c r="K52" s="3">
+        <v>27700</v>
+      </c>
+      <c r="L52" s="3">
         <v>29500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>30500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>32600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>33000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>60600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>63100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>94500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>443000</v>
+      </c>
+      <c r="E54" s="3">
         <v>435900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>444800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>412800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>399200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>393800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>377000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>366500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>366000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>374200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>389600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>384900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>621300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>620300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>668000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>664100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E57" s="3">
         <v>8400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>104800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>87100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>157300</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E58" s="3">
         <v>11900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>10600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>16100</v>
       </c>
       <c r="M58" s="3">
         <v>16100</v>
       </c>
       <c r="N58" s="3">
+        <v>16100</v>
+      </c>
+      <c r="O58" s="3">
         <v>1200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>23500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>32700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E59" s="3">
         <v>17800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>44800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>43400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>41000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>36800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>29800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>23900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>23800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>30300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>33600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>57800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>47400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>228100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E60" s="3">
         <v>38100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>62000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>52800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>53200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>49600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>42200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>44200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>45900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>40800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>54000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>43200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>186000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>167200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>221800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>229500</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E61" s="3">
         <v>22600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>17100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>34700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>42000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>57600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>99900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>125300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>94300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>130500</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>81900</v>
+      </c>
+      <c r="E62" s="3">
         <v>81300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>76300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>69500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>66400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>72500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>77700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>75300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>74200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>73800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>74100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>77100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>104300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>103200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>131600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>107800</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>143700</v>
+      </c>
+      <c r="E66" s="3">
         <v>142100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>155400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>129500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>127000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>129500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>126300</v>
       </c>
       <c r="J66" s="3">
         <v>126300</v>
       </c>
       <c r="K66" s="3">
+        <v>126300</v>
+      </c>
+      <c r="L66" s="3">
         <v>135000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>149300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>170100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>177900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>390300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>395800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>447700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>467800</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>294400</v>
+      </c>
+      <c r="E72" s="3">
         <v>289700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>284900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>279800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>270900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>264200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>250400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>239800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>231800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>226500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>216500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>207400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>248200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>242400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>239400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>214700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>299300</v>
+      </c>
+      <c r="E76" s="3">
         <v>293800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>289400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>283300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>272200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>264300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>250700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>240200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>231000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>224900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>219400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>207100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>231000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>224500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>220300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>196300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E81" s="3">
         <v>6200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>10300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>15000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>11000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>9200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>10200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>8400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>29600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4045,38 +4244,41 @@
       <c r="H83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="3">
         <v>3700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>19300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-31100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>25200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>22600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>15800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>20200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>26700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>14200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>31100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>40700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-36400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>99400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-26300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-10300</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,13 +4848,14 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="E96" s="3">
         <v>-1300</v>
@@ -4633,10 +4867,10 @@
         <v>-1300</v>
       </c>
       <c r="H96" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I96" s="3">
         <v>-1200</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-1100</v>
       </c>
       <c r="J96" s="3">
         <v>-1100</v>
@@ -4651,22 +4885,25 @@
         <v>-1100</v>
       </c>
       <c r="N96" s="3">
-        <v>-1900</v>
+        <v>-1100</v>
       </c>
       <c r="O96" s="3">
         <v>-1900</v>
       </c>
       <c r="P96" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-7300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E100" s="3">
         <v>7300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>13800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-8600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-11900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-24000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>12600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-34200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>21500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-55700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-17900</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4904,65 +5153,71 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-300</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-29200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>16600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>19400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-18200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>39100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-18500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>33600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>21400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>NC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E8" s="3">
         <v>35400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>37600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>26900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>32600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>41400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>40100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>39100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>31400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>33700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>31200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>26400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>21900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>28100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>28300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>111100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>32400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E9" s="3">
         <v>31500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>32600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>24100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>26400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>32700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>26700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>25500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>25300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>28800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>25800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>21100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>19500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>23500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>23700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>99000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E10" s="3">
         <v>3900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>13400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>13600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2400</v>
-      </c>
-      <c r="P10" s="3">
-        <v>4600</v>
       </c>
       <c r="Q10" s="3">
         <v>4600</v>
       </c>
       <c r="R10" s="3">
+        <v>4600</v>
+      </c>
+      <c r="S10" s="3">
         <v>12100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1051,11 +1071,11 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1063,79 +1083,85 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>1000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="R14" s="3">
-        <v>17400</v>
       </c>
       <c r="S14" s="3">
         <v>17400</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E15" s="3">
         <v>800</v>
       </c>
       <c r="F15" s="3">
+        <v>800</v>
+      </c>
+      <c r="G15" s="3">
         <v>400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>400</v>
-      </c>
-      <c r="P15" s="3">
-        <v>600</v>
       </c>
       <c r="Q15" s="3">
         <v>600</v>
       </c>
       <c r="R15" s="3">
+        <v>600</v>
+      </c>
+      <c r="S15" s="3">
         <v>2500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E17" s="3">
         <v>30900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>30100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>22300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>23900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>32200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>23700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>23500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>20900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>25900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>21500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>19900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>18600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>18500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>112700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E18" s="3">
         <v>4500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>16400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>15600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>9500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>9800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
         <v>1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-100</v>
       </c>
       <c r="N20" s="3">
         <v>-100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E21" s="3">
         <v>6000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>11000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>11700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>10400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>21400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>19100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>14900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>11900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>13000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>9600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>10100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>12700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>12900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>10700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,10 +1434,10 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
         <v>400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
@@ -1409,13 +1449,13 @@
         <v>200</v>
       </c>
       <c r="J22" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>400</v>
       </c>
       <c r="L22" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M22" s="3">
         <v>600</v>
@@ -1424,7 +1464,7 @@
         <v>600</v>
       </c>
       <c r="O22" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="P22" s="3">
         <v>900</v>
@@ -1433,119 +1473,128 @@
         <v>900</v>
       </c>
       <c r="R22" s="3">
+        <v>900</v>
+      </c>
+      <c r="S22" s="3">
         <v>4300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E23" s="3">
         <v>5600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>11600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>9800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>17300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>14900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>10700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>8600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>8800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-6700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-13700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-9600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E26" s="3">
         <v>6100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>6200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>10300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>15000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>11000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>9200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>8200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E27" s="3">
         <v>6100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>10300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>15000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>11000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>9200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>8200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>8200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1779,8 +1840,8 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1792,25 +1853,28 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>3600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>5100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-3200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>26700</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
-      </c>
-      <c r="M32" s="3">
-        <v>100</v>
       </c>
       <c r="N32" s="3">
         <v>100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E33" s="3">
         <v>6100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>10300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>15000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>11000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>9200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>8200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>10200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>8400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>29600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E35" s="3">
         <v>6100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>10300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>15000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>11000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>9200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>8200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>10200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>8400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>29600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>97600</v>
+      </c>
+      <c r="E41" s="3">
         <v>95500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>93700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>122900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>115100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>98400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>79100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>85300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>83100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>80000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>83400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>101600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>93900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>60200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>56400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>69300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,379 +2423,403 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>45600</v>
+      </c>
+      <c r="E43" s="3">
         <v>40300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>42100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>21900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>19600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>26300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>28100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>28800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>24500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>30600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>35700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>34500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>32000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>96300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>93200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>20800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>105000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E44" s="3">
         <v>35700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>36000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>40500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>33100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>30900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>32800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>31200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>33200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>29200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>30100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>30000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>30600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>163800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>159000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>157300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>201300</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E45" s="3">
         <v>19100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>20000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>24000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>18900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>13100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>23700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>22300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>262700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>198600</v>
+      </c>
+      <c r="E46" s="3">
         <v>190700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>188900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>200700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>180300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>175600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>164000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>164200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>151500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>152400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>162300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>177000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>164200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>344000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>330900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>381700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>384200</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E47" s="3">
         <v>25300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>27400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>24600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>23100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>22400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>23300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>20100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>20000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>18400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>18700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>16300</v>
-      </c>
-      <c r="O47" s="3">
-        <v>27300</v>
       </c>
       <c r="P47" s="3">
         <v>27300</v>
       </c>
       <c r="Q47" s="3">
+        <v>27300</v>
+      </c>
+      <c r="R47" s="3">
         <v>35900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>31100</v>
       </c>
-      <c r="S47" s="3" t="s">
+      <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E48" s="3">
         <v>154000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>150700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>149500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>141300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>134400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>138300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>124600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>126100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>123600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>119800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>120100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>116300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>132100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>132200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>115100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>124600</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E49" s="3">
         <v>36300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>37100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>37900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>38300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>39000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>39900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>40500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>41300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>42100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>42900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>43600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>44000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>57300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>58300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>51900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E52" s="3">
         <v>36600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>31800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>32100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>29800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>27800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>28300</v>
-      </c>
-      <c r="J52" s="3">
-        <v>27700</v>
       </c>
       <c r="K52" s="3">
         <v>27700</v>
       </c>
       <c r="L52" s="3">
+        <v>27700</v>
+      </c>
+      <c r="M52" s="3">
         <v>29500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>30500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>32600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>33000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>60600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>63100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>94500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>465900</v>
+      </c>
+      <c r="E54" s="3">
         <v>443000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>435900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>444800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>412800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>399200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>393800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>377000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>366500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>366000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>374200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>389600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>384900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>621300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>620300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>668000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>664100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9800</v>
+        <v>14300</v>
       </c>
       <c r="E57" s="3">
-        <v>8400</v>
+        <v>11700</v>
       </c>
       <c r="F57" s="3">
-        <v>9400</v>
+        <v>8500</v>
       </c>
       <c r="G57" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H57" s="3">
         <v>9000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K57" s="3">
         <v>7700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
+        <v>9700</v>
+      </c>
+      <c r="M57" s="3">
+        <v>9100</v>
+      </c>
+      <c r="N57" s="3">
         <v>8200</v>
       </c>
-      <c r="J57" s="3">
-        <v>7700</v>
-      </c>
-      <c r="K57" s="3">
-        <v>9700</v>
-      </c>
-      <c r="L57" s="3">
-        <v>9100</v>
-      </c>
-      <c r="M57" s="3">
-        <v>8200</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>104800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>87100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>157300</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>11900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>13000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>16100</v>
       </c>
       <c r="N58" s="3">
         <v>16100</v>
       </c>
       <c r="O58" s="3">
+        <v>16100</v>
+      </c>
+      <c r="P58" s="3">
         <v>1200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>23500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>32700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>23500</v>
+        <v>21300</v>
       </c>
       <c r="E59" s="3">
-        <v>17800</v>
+        <v>21600</v>
       </c>
       <c r="F59" s="3">
-        <v>44800</v>
+        <v>17600</v>
       </c>
       <c r="G59" s="3">
-        <v>43400</v>
+        <v>44200</v>
       </c>
       <c r="H59" s="3">
-        <v>41000</v>
+        <v>43300</v>
       </c>
       <c r="I59" s="3">
-        <v>36800</v>
+        <v>40600</v>
       </c>
       <c r="J59" s="3">
+        <v>36100</v>
+      </c>
+      <c r="K59" s="3">
         <v>29800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>23900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>23800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>30300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>33600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>57800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>47400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>228100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E60" s="3">
         <v>39300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>38100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>62000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>52800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>53200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>49600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>42200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>44200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>45900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>40800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>54000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>43200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>186000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>167200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>221800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>229500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E61" s="3">
         <v>22500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>22600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>17100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>34700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>42000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>57600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>99900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>125300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>94300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>130500</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100700</v>
+      </c>
+      <c r="E62" s="3">
         <v>81900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>81300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>76300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>69500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>66400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>72500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>77700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>75300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>74200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>73800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>74100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>77100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>104300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>103200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>131600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>107800</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>159400</v>
+      </c>
+      <c r="E66" s="3">
         <v>143700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>142100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>155400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>129500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>127000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>129500</v>
-      </c>
-      <c r="J66" s="3">
-        <v>126300</v>
       </c>
       <c r="K66" s="3">
         <v>126300</v>
       </c>
       <c r="L66" s="3">
+        <v>126300</v>
+      </c>
+      <c r="M66" s="3">
         <v>135000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>149300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>170100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>177900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>390300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>395800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>447700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>467800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>301000</v>
+      </c>
+      <c r="E72" s="3">
         <v>294400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>289700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>284900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>279800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>270900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>264200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>250400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>239800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>231800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>226500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>216500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>207400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>248200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>242400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>239400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>214700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>306500</v>
+      </c>
+      <c r="E76" s="3">
         <v>299300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>293800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>289400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>283300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>272200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>264300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>250700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>240200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>231000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>224900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>219400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>207100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>231000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>224500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>220300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>196300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E81" s="3">
         <v>6100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>10300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>15000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>11000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>9200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>8200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>10200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>8400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>29600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4247,38 +4446,41 @@
       <c r="I83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K83" s="3">
         <v>3700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>19300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E89" s="3">
         <v>18600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-31100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>25200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>22600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>15800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>20200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>26700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-8000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>14200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>31100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>40700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-36400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>99400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-26300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-10300</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4858,7 +5092,7 @@
         <v>-1400</v>
       </c>
       <c r="E96" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="F96" s="3">
         <v>-1300</v>
@@ -4870,10 +5104,10 @@
         <v>-1300</v>
       </c>
       <c r="I96" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J96" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-1100</v>
       </c>
       <c r="K96" s="3">
         <v>-1100</v>
@@ -4888,22 +5122,25 @@
         <v>-1100</v>
       </c>
       <c r="O96" s="3">
-        <v>-1900</v>
+        <v>-1100</v>
       </c>
       <c r="P96" s="3">
         <v>-1900</v>
       </c>
       <c r="Q96" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-7300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>7300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>13800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-8600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-11900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-24000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>12600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-34200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>21500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-55700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-17900</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5156,68 +5405,74 @@
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-300</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-29200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>16600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>19400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-18200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>7700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>39100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-18500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>33600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>21400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>NC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E8" s="3">
         <v>32300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>35400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>37600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>26900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>32600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>41400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>40100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>39100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>31400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>33700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>31200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>26400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>21900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>28100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>28300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>111100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>32400</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E9" s="3">
         <v>25500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>31500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>32600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>24100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>26400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>32700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>26700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>25500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>25300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>28800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>25800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>21100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>19500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>23500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>23700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>99000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E10" s="3">
         <v>6800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>13400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>13600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2400</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>4600</v>
       </c>
       <c r="R10" s="3">
         <v>4600</v>
       </c>
       <c r="S10" s="3">
+        <v>4600</v>
+      </c>
+      <c r="T10" s="3">
         <v>12100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,13 +1064,16 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>8400</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1074,11 +1093,11 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1086,82 +1105,88 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>1000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="S14" s="3">
-        <v>17400</v>
       </c>
       <c r="T14" s="3">
         <v>17400</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>300</v>
+      </c>
+      <c r="E15" s="3">
         <v>700</v>
-      </c>
-      <c r="E15" s="3">
-        <v>800</v>
       </c>
       <c r="F15" s="3">
         <v>800</v>
       </c>
       <c r="G15" s="3">
+        <v>800</v>
+      </c>
+      <c r="H15" s="3">
         <v>400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>400</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>600</v>
       </c>
       <c r="R15" s="3">
         <v>600</v>
       </c>
       <c r="S15" s="3">
+        <v>600</v>
+      </c>
+      <c r="T15" s="3">
         <v>2500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E17" s="3">
         <v>22900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>30900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>30100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>22300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>23900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>32200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>23700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>23500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>25900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>21500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>19900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>15000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>18600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>18500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>112700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E18" s="3">
         <v>9400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>16400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>15600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>9500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>9800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1345,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-100</v>
       </c>
       <c r="O20" s="3">
         <v>-100</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E21" s="3">
         <v>10500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>6000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>11000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>11700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>10400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>21400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>19100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>14900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>11900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>13000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>9600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>10100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>12700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>12900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>10700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1437,10 +1476,10 @@
         <v>300</v>
       </c>
       <c r="F22" s="3">
+        <v>300</v>
+      </c>
+      <c r="G22" s="3">
         <v>400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
@@ -1452,13 +1491,13 @@
         <v>200</v>
       </c>
       <c r="K22" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>400</v>
       </c>
       <c r="M22" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N22" s="3">
         <v>600</v>
@@ -1467,7 +1506,7 @@
         <v>600</v>
       </c>
       <c r="P22" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="Q22" s="3">
         <v>900</v>
@@ -1476,125 +1515,134 @@
         <v>900</v>
       </c>
       <c r="S22" s="3">
+        <v>900</v>
+      </c>
+      <c r="T22" s="3">
         <v>4300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E23" s="3">
         <v>9900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>11600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>9800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>17300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>14900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>10700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>8600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>8800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-6700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-13700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E24" s="3">
         <v>1900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-9600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E26" s="3">
         <v>8000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>6100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>10300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>15000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>11000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>9200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>8200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E27" s="3">
         <v>8000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>10300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>15000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>11000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>9200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>8200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>8200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1843,8 +1903,8 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1856,25 +1916,28 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>3600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>5100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-4100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-3200</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>26700</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
-      </c>
-      <c r="N32" s="3">
-        <v>100</v>
       </c>
       <c r="O32" s="3">
         <v>100</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E33" s="3">
         <v>8000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>10300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>8000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>15000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>11000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>8200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>10200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>8400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>29600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E35" s="3">
         <v>8000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>10300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>8000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>15000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>11000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>8200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>10200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>8400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>29600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>88500</v>
+      </c>
+      <c r="E41" s="3">
         <v>97600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>95500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>93700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>122900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>115100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>98400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>79100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>85300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>83100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>80000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>83400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>101600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>93900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>60200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>56400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>69300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,400 +2515,424 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E43" s="3">
         <v>45600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>40300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>42100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>21900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>19600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>26300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>28100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>28800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>24500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>30600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>35700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>34500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>32000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>96300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>93200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>20800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>105000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E44" s="3">
         <v>42400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>35700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>36000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>40500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>33100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>30900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>32800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>31200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>33200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>29200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>30100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>30000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>30600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>163800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>159000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>157300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>201300</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E45" s="3">
         <v>13000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>20000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>24000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>18900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>23700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>22300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>262700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>188100</v>
+      </c>
+      <c r="E46" s="3">
         <v>198600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>190700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>188900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>180300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>175600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>164000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>164200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>151500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>152400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>162300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>177000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>164200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>344000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>330900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>381700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>384200</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E47" s="3">
         <v>25500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>25300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>27400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>24600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>23100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>22400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>23300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>20100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>20000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>18400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>18700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>16300</v>
-      </c>
-      <c r="P47" s="3">
-        <v>27300</v>
       </c>
       <c r="Q47" s="3">
         <v>27300</v>
       </c>
       <c r="R47" s="3">
+        <v>27300</v>
+      </c>
+      <c r="S47" s="3">
         <v>35900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>31100</v>
       </c>
-      <c r="T47" s="3" t="s">
+      <c r="U47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>182700</v>
+      </c>
+      <c r="E48" s="3">
         <v>167000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>154000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>150700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>149500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>141300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>134400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>138300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>124600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>126100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>123600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>119800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>120100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>116300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>132100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>132200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>115100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>124600</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E49" s="3">
         <v>35600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>36300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>37100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>37900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>38300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>39000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>39900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>40500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>41300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>42100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>42900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>43600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>44000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>57300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>58300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>51900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E52" s="3">
         <v>39100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>36600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>31800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>32100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>29800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>27800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>28300</v>
-      </c>
-      <c r="K52" s="3">
-        <v>27700</v>
       </c>
       <c r="L52" s="3">
         <v>27700</v>
       </c>
       <c r="M52" s="3">
+        <v>27700</v>
+      </c>
+      <c r="N52" s="3">
         <v>29500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>30500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>32600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>33000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>60600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>63100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>94500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>476200</v>
+      </c>
+      <c r="E54" s="3">
         <v>465900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>443000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>435900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>444800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>412800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>399200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>393800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>377000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>366500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>366000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>374200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>389600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>384900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>621300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>620300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>668000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>664100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E57" s="3">
         <v>14300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>104800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>87100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>157300</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>11900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>13000</v>
-      </c>
-      <c r="N58" s="3">
-        <v>16100</v>
       </c>
       <c r="O58" s="3">
         <v>16100</v>
       </c>
       <c r="P58" s="3">
+        <v>16100</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>23500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>32700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E59" s="3">
         <v>21300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>44200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>43300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>40600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>36100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>29800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>23900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>23800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>16600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>30300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>33600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>57800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>47400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>228100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>52300</v>
+      </c>
+      <c r="E60" s="3">
         <v>36600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>39300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>38100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>62000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>52800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>53200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>49600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>42200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>44200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>45900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>40800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>54000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>43200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>186000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>167200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>221800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>229500</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E61" s="3">
         <v>22200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>22500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>22600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>17100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>14900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>34700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>42000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>57600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>99900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>125300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>94300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>130500</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>98900</v>
+      </c>
+      <c r="E62" s="3">
         <v>100700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>81900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>81300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>76300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>69500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>66400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>72500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>77700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>75300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>74200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>73800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>74100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>77100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>104300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>103200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>131600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>107800</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>175600</v>
+      </c>
+      <c r="E66" s="3">
         <v>159400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>143700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>142100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>155400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>129500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>127000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>129500</v>
-      </c>
-      <c r="K66" s="3">
-        <v>126300</v>
       </c>
       <c r="L66" s="3">
         <v>126300</v>
       </c>
       <c r="M66" s="3">
+        <v>126300</v>
+      </c>
+      <c r="N66" s="3">
         <v>135000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>149300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>170100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>177900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>390300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>395800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>447700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>467800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>294300</v>
+      </c>
+      <c r="E72" s="3">
         <v>301000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>294400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>289700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>284900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>279800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>270900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>264200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>250400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>239800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>231800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>226500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>216500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>207400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>248200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>242400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>239400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>214700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>300600</v>
+      </c>
+      <c r="E76" s="3">
         <v>306500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>299300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>293800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>289400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>283300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>272200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>264300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>250700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>240200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>231000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>224900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>219400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>207100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>231000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>224500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>220300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>196300</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E81" s="3">
         <v>8000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>10300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>8000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>15000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>11000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>8200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>10200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>8400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>29600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>19300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E89" s="3">
         <v>15200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>18600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-31100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>25200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>22600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>15800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>20200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>26700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-8000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>14200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>31100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>40700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-36400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>99400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-26300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-10300</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-9800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,19 +5315,20 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="E96" s="3">
         <v>-1400</v>
       </c>
       <c r="F96" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="G96" s="3">
         <v>-1300</v>
@@ -5107,10 +5340,10 @@
         <v>-1300</v>
       </c>
       <c r="J96" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1200</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-1100</v>
       </c>
       <c r="L96" s="3">
         <v>-1100</v>
@@ -5125,22 +5358,25 @@
         <v>-1100</v>
       </c>
       <c r="P96" s="3">
-        <v>-1900</v>
+        <v>-1100</v>
       </c>
       <c r="Q96" s="3">
         <v>-1900</v>
       </c>
       <c r="R96" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-7300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-6700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>7300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>13800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-11900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-24000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>12600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-34200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>21500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-55700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-17900</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5408,71 +5656,77 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-300</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E102" s="3">
         <v>2000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-29200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>16600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>19400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-18200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>7700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>39100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-18500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>33600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>21400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>NC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E8" s="3">
         <v>23100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>32300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>35400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>37600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>26900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>32600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>41400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>40100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>39100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>31400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>33700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>31200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>26400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>21900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>28100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>28300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>111100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>32400</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E9" s="3">
         <v>21900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>25500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>31500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>32600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>24100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>26400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>32700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>26700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>25500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>25300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>28800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>25800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>21100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>19500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>23500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>23700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>99000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E10" s="3">
         <v>1200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>13400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>13600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2400</v>
-      </c>
-      <c r="R10" s="3">
-        <v>4600</v>
       </c>
       <c r="S10" s="3">
         <v>4600</v>
       </c>
       <c r="T10" s="3">
+        <v>4600</v>
+      </c>
+      <c r="U10" s="3">
         <v>12100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,16 +1084,19 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>8400</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1096,11 +1116,11 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1108,85 +1128,91 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="T14" s="3">
-        <v>17400</v>
       </c>
       <c r="U14" s="3">
         <v>17400</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="3">
         <v>300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>700</v>
-      </c>
-      <c r="F15" s="3">
-        <v>800</v>
       </c>
       <c r="G15" s="3">
         <v>800</v>
       </c>
       <c r="H15" s="3">
+        <v>800</v>
+      </c>
+      <c r="I15" s="3">
         <v>400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>400</v>
-      </c>
-      <c r="R15" s="3">
-        <v>600</v>
       </c>
       <c r="S15" s="3">
         <v>600</v>
       </c>
       <c r="T15" s="3">
+        <v>600</v>
+      </c>
+      <c r="U15" s="3">
         <v>2500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>36800</v>
+      </c>
+      <c r="E17" s="3">
         <v>31200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>22900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>30900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>30100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>22300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>23900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>32200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>23700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>23500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>25900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>21500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>19900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>15000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>18600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>18500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>112700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-8100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>9400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>16400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>15600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>9700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>9500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>9800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,131 +1379,138 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-100</v>
       </c>
       <c r="P20" s="3">
         <v>-100</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-7800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>10500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>6000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>11000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>11700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>10400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>21400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>19100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>14900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>11900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>13000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>10100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>12700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>12900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>10700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E22" s="3">
         <v>300</v>
@@ -1479,10 +1519,10 @@
         <v>300</v>
       </c>
       <c r="G22" s="3">
+        <v>300</v>
+      </c>
+      <c r="H22" s="3">
         <v>400</v>
-      </c>
-      <c r="H22" s="3">
-        <v>200</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
@@ -1494,13 +1534,13 @@
         <v>200</v>
       </c>
       <c r="L22" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M22" s="3">
         <v>400</v>
       </c>
       <c r="N22" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="O22" s="3">
         <v>600</v>
@@ -1509,7 +1549,7 @@
         <v>600</v>
       </c>
       <c r="Q22" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="R22" s="3">
         <v>900</v>
@@ -1518,131 +1558,140 @@
         <v>900</v>
       </c>
       <c r="T22" s="3">
+        <v>900</v>
+      </c>
+      <c r="U22" s="3">
         <v>4300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>9900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>11600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>9800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>17300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>14900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>10700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>9000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>8600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>8800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-6700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-13700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-9600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>10300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>15000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>11000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>8200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>8200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>10300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>15000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>11000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>8200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>8200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,37 +1935,40 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1919,25 +1980,28 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>3600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>5100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-4100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-3200</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>26700</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
-      </c>
-      <c r="O32" s="3">
-        <v>100</v>
       </c>
       <c r="P32" s="3">
         <v>100</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>10300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>15000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>11000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>8200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>10200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>8400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>29600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>10300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>15000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>11000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>8200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>10200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>8400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>29600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>79100</v>
+      </c>
+      <c r="E41" s="3">
         <v>88500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>97600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>95500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>93700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>122900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>115100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>98400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>79100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>85300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>83100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>80000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>83400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>101600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>93900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>60200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>56400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>69300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,421 +2608,445 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E43" s="3">
         <v>41300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>45600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>40300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>42100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>21900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>19600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>26300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>28100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>28800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>24500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>30600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>35700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>34500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>32000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>96300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>93200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>20800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>105000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E44" s="3">
         <v>47600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>42400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>35700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>36000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>40500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>33100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>30900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>32800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>31200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>33200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>29200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>30100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>30000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>30600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>163800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>159000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>157300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>201300</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E45" s="3">
         <v>10900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>20000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>24000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>18900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>13100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>23700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>22300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>262700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>192800</v>
+      </c>
+      <c r="E46" s="3">
         <v>188100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>198600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>190700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>188900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>200700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>180300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>175600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>164000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>164200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>151500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>152400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>162300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>177000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>164200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>344000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>330900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>381700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>384200</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E47" s="3">
         <v>29000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>25500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>25300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>27400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>24600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>23100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>22400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>23300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>20100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>20000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>18400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>18700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>16300</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>27300</v>
       </c>
       <c r="R47" s="3">
         <v>27300</v>
       </c>
       <c r="S47" s="3">
+        <v>27300</v>
+      </c>
+      <c r="T47" s="3">
         <v>35900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>31100</v>
       </c>
-      <c r="U47" s="3" t="s">
+      <c r="V47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>179100</v>
+      </c>
+      <c r="E48" s="3">
         <v>182700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>167000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>154000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>150700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>149500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>141300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>134400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>138300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>124600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>126100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>123600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>119800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>120100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>116300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>132100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>132200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>115100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>124600</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E49" s="3">
         <v>35300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>35600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>36300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>37100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>37900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>38300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>39000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>39900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>40500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>41300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>42100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>42900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>43600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>44000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>57300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>58300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>51900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E52" s="3">
         <v>41000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>39100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>36600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>31800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>32100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>29800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>27800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>28300</v>
-      </c>
-      <c r="L52" s="3">
-        <v>27700</v>
       </c>
       <c r="M52" s="3">
         <v>27700</v>
       </c>
       <c r="N52" s="3">
+        <v>27700</v>
+      </c>
+      <c r="O52" s="3">
         <v>29500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>30500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>32600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>33000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>60600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>63100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>94500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>479200</v>
+      </c>
+      <c r="E54" s="3">
         <v>476200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>465900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>443000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>435900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>444800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>412800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>399200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>393800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>377000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>366500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>366000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>374200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>389600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>384900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>621300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>620300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>668000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>664100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E57" s="3">
         <v>5600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>14300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>104800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>87100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>7000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>157300</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E58" s="3">
         <v>22100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>11900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>10600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>13000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>16100</v>
       </c>
       <c r="P58" s="3">
         <v>16100</v>
       </c>
       <c r="Q58" s="3">
+        <v>16100</v>
+      </c>
+      <c r="R58" s="3">
         <v>1200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>23500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>32700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E59" s="3">
         <v>24500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>21600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>44200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>43300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>40600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>36100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>29800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>23900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>23800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>16600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>30300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>33600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>57800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>47400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>228100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E60" s="3">
         <v>52300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>36600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>39300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>38100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>62000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>52800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>53200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>49600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>42200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>44200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>45900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>40800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>54000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>43200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>186000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>167200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>221800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>229500</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E61" s="3">
         <v>24400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>22200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>22500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>22600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>17100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>14900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>34700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>42000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>57600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>99900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>125300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>94300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>130500</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>99600</v>
+      </c>
+      <c r="E62" s="3">
         <v>98900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>100700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>81900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>81300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>76300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>69500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>66400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>72500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>77700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>75300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>74200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>73800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>74100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>77100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>104300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>103200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>131600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>107800</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>169900</v>
+      </c>
+      <c r="E66" s="3">
         <v>175600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>159400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>143700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>142100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>155400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>129500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>127000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>129500</v>
-      </c>
-      <c r="L66" s="3">
-        <v>126300</v>
       </c>
       <c r="M66" s="3">
         <v>126300</v>
       </c>
       <c r="N66" s="3">
+        <v>126300</v>
+      </c>
+      <c r="O66" s="3">
         <v>135000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>149300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>170100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>177900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>390300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>395800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>447700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>467800</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>301900</v>
+      </c>
+      <c r="E72" s="3">
         <v>294300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>301000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>294400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>289700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>284900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>279800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>270900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>264200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>250400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>239800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>231800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>226500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>216500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>207400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>248200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>242400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>239400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>214700</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>309400</v>
+      </c>
+      <c r="E76" s="3">
         <v>300600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>306500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>299300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>293800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>289400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>283300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>272200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>264300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>250700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>240200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>231000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>224900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>219400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>207100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>231000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>224500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>220300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>196300</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>10300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>15000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>11000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>8200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>10200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>8400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>29600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4647,41 +4846,44 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>19300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>15200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>18600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-31100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>25200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>22600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>15800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>20200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>26700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-8000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>14200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>31100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>40700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-36400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>99400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E91" s="3">
         <v>5600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-26300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-10300</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-24800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-9800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,22 +5549,23 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1300</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-1400</v>
       </c>
       <c r="F96" s="3">
         <v>-1400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="H96" s="3">
         <v>-1300</v>
@@ -5343,10 +5577,10 @@
         <v>-1300</v>
       </c>
       <c r="K96" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-1100</v>
       </c>
       <c r="M96" s="3">
         <v>-1100</v>
@@ -5361,22 +5595,25 @@
         <v>-1100</v>
       </c>
       <c r="Q96" s="3">
-        <v>-1900</v>
+        <v>-1100</v>
       </c>
       <c r="R96" s="3">
         <v>-1900</v>
       </c>
       <c r="S96" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-7300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E100" s="3">
         <v>20900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>7300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>13800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-11900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-24000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>12600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-34200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>21500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-55700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-17900</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5659,74 +5908,80 @@
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-300</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-29200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>16600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>19400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-18200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>7700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>39100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-18500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>33600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>21400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>NC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E8" s="3">
         <v>45100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>23100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>32300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>35400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>37600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>26900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>32600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>41400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>40100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>39100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>31400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>33700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>31200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>26400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>21900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>28100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>28300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>111100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>32400</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E9" s="3">
         <v>37400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>21900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>25500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>31500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>32600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>24100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>26400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>32700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>26700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>25500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>25300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>28800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>25800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>21100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>19500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>23500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>23700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>99000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E10" s="3">
         <v>7700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>13400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>13600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2400</v>
-      </c>
-      <c r="S10" s="3">
-        <v>4600</v>
       </c>
       <c r="T10" s="3">
         <v>4600</v>
       </c>
       <c r="U10" s="3">
+        <v>4600</v>
+      </c>
+      <c r="V10" s="3">
         <v>12100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,19 +1104,22 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>8400</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1119,11 +1139,11 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1131,88 +1151,94 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>1000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="U14" s="3">
-        <v>17400</v>
       </c>
       <c r="V14" s="3">
         <v>17400</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>900</v>
+      </c>
+      <c r="E15" s="3">
         <v>1000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>700</v>
-      </c>
-      <c r="G15" s="3">
-        <v>800</v>
       </c>
       <c r="H15" s="3">
         <v>800</v>
       </c>
       <c r="I15" s="3">
+        <v>800</v>
+      </c>
+      <c r="J15" s="3">
         <v>400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>400</v>
-      </c>
-      <c r="S15" s="3">
-        <v>600</v>
       </c>
       <c r="T15" s="3">
         <v>600</v>
       </c>
       <c r="U15" s="3">
+        <v>600</v>
+      </c>
+      <c r="V15" s="3">
         <v>2500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E17" s="3">
         <v>36800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>31200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>22900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>30900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>30100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>22300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>23900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>32200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>23700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>20900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>25900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>21500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>19900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>15000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>18600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>18500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>112700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E18" s="3">
         <v>8300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-8100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>16400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>15600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>9700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>9500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>9800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,132 +1413,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-100</v>
       </c>
       <c r="Q20" s="3">
         <v>-100</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E21" s="3">
         <v>14600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-7800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>10500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>6000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>11000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>11700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>21400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>19100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>14900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>11900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>13000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>9600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>10100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>12700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>12900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>10700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1513,7 +1553,7 @@
         <v>400</v>
       </c>
       <c r="E22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F22" s="3">
         <v>300</v>
@@ -1522,10 +1562,10 @@
         <v>300</v>
       </c>
       <c r="H22" s="3">
+        <v>300</v>
+      </c>
+      <c r="I22" s="3">
         <v>400</v>
-      </c>
-      <c r="I22" s="3">
-        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
@@ -1537,13 +1577,13 @@
         <v>200</v>
       </c>
       <c r="M22" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N22" s="3">
         <v>400</v>
       </c>
       <c r="O22" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="P22" s="3">
         <v>600</v>
@@ -1552,7 +1592,7 @@
         <v>600</v>
       </c>
       <c r="R22" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="S22" s="3">
         <v>900</v>
@@ -1561,137 +1601,146 @@
         <v>900</v>
       </c>
       <c r="U22" s="3">
+        <v>900</v>
+      </c>
+      <c r="V22" s="3">
         <v>4300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E23" s="3">
         <v>8700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>9900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>11600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>17300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>14900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>10700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>9000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>8600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>8800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-6700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-13700</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-9600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E26" s="3">
         <v>9000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>10300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>15000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>11000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>9200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>8200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>8200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E27" s="3">
         <v>9000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>10300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>15000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>11000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>9200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>8200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>7200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>8200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1964,14 +2025,14 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -1983,25 +2044,28 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>3600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>5100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-4100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-3200</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>26700</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
-      </c>
-      <c r="P32" s="3">
-        <v>100</v>
       </c>
       <c r="Q32" s="3">
         <v>100</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E33" s="3">
         <v>9000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>10300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>15000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>11000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>9200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>8200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>10200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>8400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>5000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>29600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E35" s="3">
         <v>9000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>10300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>15000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>11000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>9200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>8200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>10200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>8400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>5000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>29600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E41" s="3">
         <v>79100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>88500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>97600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>95500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>93700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>122900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>115100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>98400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>79100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>85300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>83100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>80000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>83400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>101600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>93900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>60200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>56400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>69300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,442 +2701,466 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E43" s="3">
         <v>44300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>41300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>45600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>40300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>42100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>21900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>19600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>26300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>28100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>28800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>24500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>30600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>35700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>34500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>32000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>96300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>93200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>20800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>105000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>49700</v>
+      </c>
+      <c r="E44" s="3">
         <v>45100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>47600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>42400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>35700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>36000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>40500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>33100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>30900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>32800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>31200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>33200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>29200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>30100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>30000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>30600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>163800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>159000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>157300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>201300</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E45" s="3">
         <v>24200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>17100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>20000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>24000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>18900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>13100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>10800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>23700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>22300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>262700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>189300</v>
+      </c>
+      <c r="E46" s="3">
         <v>192800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>188100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>198600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>190700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>188900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>200700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>180300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>175600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>164000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>164200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>151500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>152400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>162300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>177000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>164200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>344000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>330900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>381700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>384200</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E47" s="3">
         <v>29800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>29000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>25500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>25300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>27400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>24600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>23100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>22400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>23300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>20100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>20000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>18400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>18700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>16300</v>
-      </c>
-      <c r="R47" s="3">
-        <v>27300</v>
       </c>
       <c r="S47" s="3">
         <v>27300</v>
       </c>
       <c r="T47" s="3">
+        <v>27300</v>
+      </c>
+      <c r="U47" s="3">
         <v>35900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>31100</v>
       </c>
-      <c r="V47" s="3" t="s">
+      <c r="W47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>185100</v>
+      </c>
+      <c r="E48" s="3">
         <v>179100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>182700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>167000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>154000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>150700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>149500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>141300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>134400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>138300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>124600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>126100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>123600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>119800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>120100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>116300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>132100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>132200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>115100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>124600</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E49" s="3">
         <v>34300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>35300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>35600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>36300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>37100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>37900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>38300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>39000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>39900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>40500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>41300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>42100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>42900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>43600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>44000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>57300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>58300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>51900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E52" s="3">
         <v>43200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>41000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>39100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>36600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>31800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>32100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>29800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>27800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>28300</v>
-      </c>
-      <c r="M52" s="3">
-        <v>27700</v>
       </c>
       <c r="N52" s="3">
         <v>27700</v>
       </c>
       <c r="O52" s="3">
+        <v>27700</v>
+      </c>
+      <c r="P52" s="3">
         <v>29500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>30500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>32600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>33000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>60600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>63100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>94500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>474000</v>
+      </c>
+      <c r="E54" s="3">
         <v>479200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>476200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>465900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>443000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>435900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>444800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>412800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>399200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>393800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>377000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>366500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>366000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>374200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>389600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>384900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>621300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>620300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>668000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>664100</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E57" s="3">
         <v>8200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>14300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>104800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>87100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>7000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>157300</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E58" s="3">
         <v>20100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>22100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>11900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>10600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>13000</v>
-      </c>
-      <c r="P58" s="3">
-        <v>16100</v>
       </c>
       <c r="Q58" s="3">
         <v>16100</v>
       </c>
       <c r="R58" s="3">
+        <v>16100</v>
+      </c>
+      <c r="S58" s="3">
         <v>1200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>23500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>32700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E59" s="3">
         <v>17600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>24500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>21300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>21600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>44200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>43300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>40600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>36100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>29800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>23900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>23800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>16600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>30300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>33600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>57800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>47400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>228100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E60" s="3">
         <v>45900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>52300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>36600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>39300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>38100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>62000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>52800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>53200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>49600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>42200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>44200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>45900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>40800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>54000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>43200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>186000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>167200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>221800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>229500</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E61" s="3">
         <v>24300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>24400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>22200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>22500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>22600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>17100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>14900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>34700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>42000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>57600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>99900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>125300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>94300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>130500</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>96100</v>
+      </c>
+      <c r="E62" s="3">
         <v>99600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>98900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>100700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>81900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>81300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>76300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>69500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>66400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>72500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>77700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>75300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>74200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>73800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>74100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>77100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>104300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>103200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>131600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>107800</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>158300</v>
+      </c>
+      <c r="E66" s="3">
         <v>169900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>175600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>159400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>143700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>142100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>155400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>129500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>127000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>129500</v>
-      </c>
-      <c r="M66" s="3">
-        <v>126300</v>
       </c>
       <c r="N66" s="3">
         <v>126300</v>
       </c>
       <c r="O66" s="3">
+        <v>126300</v>
+      </c>
+      <c r="P66" s="3">
         <v>135000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>149300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>170100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>177900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>390300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>395800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>447700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>467800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>307000</v>
+      </c>
+      <c r="E72" s="3">
         <v>301900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>294300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>301000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>294400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>289700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>284900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>279800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>270900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>264200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>250400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>239800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>231800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>226500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>216500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>207400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>248200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>242400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>239400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>214700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>315700</v>
+      </c>
+      <c r="E76" s="3">
         <v>309400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>300600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>306500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>299300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>293800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>289400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>283300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>272200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>264300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>250700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>240200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>231000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>224900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>219400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>207100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>231000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>224500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>220300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>196300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E81" s="3">
         <v>9000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>10300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>15000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>11000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>9200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>8200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>10200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>8400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>5000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>29600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4849,41 +5048,44 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>19300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>15200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>18600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-31100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>25200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>22600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>15800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>20200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>26700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>14200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>31100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>40700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-36400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>99400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>5600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-26300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-10300</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-24800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-9800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5559,16 +5793,16 @@
         <v>-1400</v>
       </c>
       <c r="E96" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1300</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-1400</v>
       </c>
       <c r="G96" s="3">
         <v>-1400</v>
       </c>
       <c r="H96" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="I96" s="3">
         <v>-1300</v>
@@ -5580,10 +5814,10 @@
         <v>-1300</v>
       </c>
       <c r="L96" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-1100</v>
       </c>
       <c r="N96" s="3">
         <v>-1100</v>
@@ -5598,22 +5832,25 @@
         <v>-1100</v>
       </c>
       <c r="R96" s="3">
-        <v>-1900</v>
+        <v>-1100</v>
       </c>
       <c r="S96" s="3">
         <v>-1900</v>
       </c>
       <c r="T96" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="U96" s="3">
         <v>-1800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-7300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>20900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>7300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>13800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-11900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-24000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>12600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-34200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>21500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-55700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-17900</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5911,77 +6160,83 @@
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-300</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-29200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>16600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>19400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>7700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>39100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-18500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>33600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>21400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>NC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>51700</v>
+      </c>
+      <c r="E8" s="3">
         <v>45900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>45100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>23100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>32300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>35400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>37600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>26900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>32600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>41400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>40100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>39100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>31400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>33700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>31200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>26400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>21900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>28100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>28300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>111100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>32400</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E9" s="3">
         <v>36900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>37400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>21900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>25500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>31500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>32600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>24100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>26400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>32700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>26700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>25500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>25300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>28800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>25800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>21100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>19500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>23500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>23700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>99000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E10" s="3">
         <v>9000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>13400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>13600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2400</v>
-      </c>
-      <c r="T10" s="3">
-        <v>4600</v>
       </c>
       <c r="U10" s="3">
         <v>4600</v>
       </c>
       <c r="V10" s="3">
+        <v>4600</v>
+      </c>
+      <c r="W10" s="3">
         <v>12100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,22 +1124,25 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>-10300</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>8400</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1142,11 +1162,11 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1154,26 +1174,29 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>1000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="V14" s="3">
-        <v>17400</v>
       </c>
       <c r="W14" s="3">
         <v>17400</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1181,64 +1204,67 @@
         <v>900</v>
       </c>
       <c r="E15" s="3">
+        <v>900</v>
+      </c>
+      <c r="F15" s="3">
         <v>1000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>700</v>
-      </c>
-      <c r="H15" s="3">
-        <v>800</v>
       </c>
       <c r="I15" s="3">
         <v>800</v>
       </c>
       <c r="J15" s="3">
+        <v>800</v>
+      </c>
+      <c r="K15" s="3">
         <v>400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>400</v>
-      </c>
-      <c r="T15" s="3">
-        <v>600</v>
       </c>
       <c r="U15" s="3">
         <v>600</v>
       </c>
       <c r="V15" s="3">
+        <v>600</v>
+      </c>
+      <c r="W15" s="3">
         <v>2500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E17" s="3">
         <v>37200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>36800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>31200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>22900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>30900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>30100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>22300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>23900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>32200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>23500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>20900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>25900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>21500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>19900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>15000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>18600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>18500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>112700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E18" s="3">
         <v>8700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>8300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>9200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>16400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>15600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>9700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>9500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>9800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,149 +1447,156 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-100</v>
       </c>
       <c r="R20" s="3">
         <v>-100</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E21" s="3">
         <v>9800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>14600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>10500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>11000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>10400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>21400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>19100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>14900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>11900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>13000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>9600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>10100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>12700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>12900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>10700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E22" s="3">
         <v>400</v>
       </c>
       <c r="F22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G22" s="3">
         <v>300</v>
@@ -1565,10 +1605,10 @@
         <v>300</v>
       </c>
       <c r="I22" s="3">
+        <v>300</v>
+      </c>
+      <c r="J22" s="3">
         <v>400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
@@ -1580,13 +1620,13 @@
         <v>200</v>
       </c>
       <c r="N22" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O22" s="3">
         <v>400</v>
       </c>
       <c r="P22" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q22" s="3">
         <v>600</v>
@@ -1595,7 +1635,7 @@
         <v>600</v>
       </c>
       <c r="S22" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T22" s="3">
         <v>900</v>
@@ -1604,143 +1644,152 @@
         <v>900</v>
       </c>
       <c r="V22" s="3">
+        <v>900</v>
+      </c>
+      <c r="W22" s="3">
         <v>4300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E23" s="3">
         <v>9400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>8700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>9900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>11600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>17300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>14900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>10700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>9000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>8600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>8800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-6700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-13700</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E24" s="3">
         <v>2900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-9600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E26" s="3">
         <v>6500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>10300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>15000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>11000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>9200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>8200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>7200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>8200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E27" s="3">
         <v>6500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>10300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>15000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>11000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>9200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>8200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>7200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>8200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2028,14 +2089,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -2047,25 +2108,28 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>3600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>5100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-4100</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-3200</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>26700</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>100</v>
       </c>
       <c r="R32" s="3">
         <v>100</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E33" s="3">
         <v>6500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>10300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>15000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>11000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>9200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>8200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>10200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>8400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>5000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>29600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E35" s="3">
         <v>6500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>10300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>15000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>11000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>9200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>8200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>10200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>8400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>5000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>29600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>87500</v>
+      </c>
+      <c r="E41" s="3">
         <v>85000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>79100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>88500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>97600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>95500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>93700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>122900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>115100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>98400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>79100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>85300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>83100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>80000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>83400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>101600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>93900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>60200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>56400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>69300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,463 +2794,487 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E43" s="3">
         <v>37500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>44300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>41300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>45600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>40300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>42100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>21900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>19600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>26300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>28100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>28800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>24500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>30600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>35700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>34500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>32000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>96300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>93200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>20800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>105000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E44" s="3">
         <v>49700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>45100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>47600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>42400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>35700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>36000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>40500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>33100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>30900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>32800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>31200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>33200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>29200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>30100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>30000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>30600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>163800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>159000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>157300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>201300</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E45" s="3">
         <v>17000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>24200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>17100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>15500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>20000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>24000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>18900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>13100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>10800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>7700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>23700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>22300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>262700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>192400</v>
+      </c>
+      <c r="E46" s="3">
         <v>189300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>192800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>188100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>198600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>190700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>188900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>180300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>175600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>164000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>164200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>151500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>152400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>162300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>177000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>164200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>344000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>330900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>381700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>384200</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E47" s="3">
         <v>20900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>29800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>29000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>25500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>25300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>27400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>24600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>23100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>22400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>23300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>20100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>20000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>18400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>18700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>16300</v>
-      </c>
-      <c r="S47" s="3">
-        <v>27300</v>
       </c>
       <c r="T47" s="3">
         <v>27300</v>
       </c>
       <c r="U47" s="3">
+        <v>27300</v>
+      </c>
+      <c r="V47" s="3">
         <v>35900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>31100</v>
       </c>
-      <c r="W47" s="3" t="s">
+      <c r="X47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>198600</v>
+      </c>
+      <c r="E48" s="3">
         <v>185100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>179100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>182700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>167000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>154000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>150700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>149500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>141300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>134400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>138300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>124600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>126100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>123600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>119800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>120100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>116300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>132100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>132200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>115100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>124600</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E49" s="3">
         <v>33400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>34300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>35300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>35600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>36300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>37100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>37900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>38300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>39000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>39900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>40500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>41300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>42100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>42900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>43600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>44000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>57300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>58300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>51900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E52" s="3">
         <v>45200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>43200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>41000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>39100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>36600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>31800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>32100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>29800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>27800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>28300</v>
-      </c>
-      <c r="N52" s="3">
-        <v>27700</v>
       </c>
       <c r="O52" s="3">
         <v>27700</v>
       </c>
       <c r="P52" s="3">
+        <v>27700</v>
+      </c>
+      <c r="Q52" s="3">
         <v>29500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>30500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>32600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>33000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>60600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>63100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>94500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>488900</v>
+      </c>
+      <c r="E54" s="3">
         <v>474000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>479200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>476200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>465900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>443000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>435900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>444800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>412800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>399200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>393800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>377000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>366500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>366000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>374200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>389600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>384900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>621300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>620300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>668000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>664100</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E57" s="3">
         <v>10400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>14300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>104800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>87100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>7000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>157300</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E58" s="3">
         <v>10200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>20100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>22100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>11900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>10600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>13000</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>16100</v>
       </c>
       <c r="R58" s="3">
         <v>16100</v>
       </c>
       <c r="S58" s="3">
+        <v>16100</v>
+      </c>
+      <c r="T58" s="3">
         <v>1200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>23500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>32700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E59" s="3">
         <v>19900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>24500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>21300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>21600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>17600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>44200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>43300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>40600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>36100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>29800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>23900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>23800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>16600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>30300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>33600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>57800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>47400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>228100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E60" s="3">
         <v>40400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>45900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>52300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>36600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>39300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>38100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>62000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>52800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>53200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>49600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>42200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>44200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>45900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>40800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>54000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>43200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>186000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>167200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>221800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>229500</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E61" s="3">
         <v>21800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>24300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>24400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>22200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>22500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>22600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>17100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>14900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>34700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>42000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>57600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>99900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>125300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>94300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>130500</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>92600</v>
+      </c>
+      <c r="E62" s="3">
         <v>96100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>99600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>98900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>100700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>81900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>81300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>76300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>69500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>66400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>72500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>77700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>75300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>74200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>73800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>74100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>77100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>104300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>103200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>131600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>107800</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>148000</v>
+      </c>
+      <c r="E66" s="3">
         <v>158300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>169900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>175600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>159400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>143700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>142100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>155400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>129500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>127000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>129500</v>
-      </c>
-      <c r="N66" s="3">
-        <v>126300</v>
       </c>
       <c r="O66" s="3">
         <v>126300</v>
       </c>
       <c r="P66" s="3">
+        <v>126300</v>
+      </c>
+      <c r="Q66" s="3">
         <v>135000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>149300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>170100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>177900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>390300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>395800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>447700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>467800</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>330400</v>
+      </c>
+      <c r="E72" s="3">
         <v>307000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>301900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>294300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>301000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>294400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>289700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>284900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>279800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>270900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>264200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>250400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>239800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>231800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>226500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>216500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>207400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>248200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>242400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>239400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>214700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>340900</v>
+      </c>
+      <c r="E76" s="3">
         <v>315700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>309400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>300600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>306500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>299300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>293800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>289400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>283300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>272200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>264300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>250700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>240200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>231000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>224900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>219400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>207100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>231000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>224500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>220300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>196300</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E81" s="3">
         <v>6500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>10300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>15000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>11000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>9200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>8200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>10200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>8400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>5000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>29600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5051,41 +5250,44 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>19300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E89" s="3">
         <v>30200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>15200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>18600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-31100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>25200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>22600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>15800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>20200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>26700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-8000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>14200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>31100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>40700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-36400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>99400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>5600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-8100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-26300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-10300</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-11200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-24800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-11500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-9800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5796,16 +6030,16 @@
         <v>-1400</v>
       </c>
       <c r="F96" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G96" s="3">
         <v>-1300</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-1400</v>
       </c>
       <c r="H96" s="3">
         <v>-1400</v>
       </c>
       <c r="I96" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="J96" s="3">
         <v>-1300</v>
@@ -5817,10 +6051,10 @@
         <v>-1300</v>
       </c>
       <c r="M96" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1200</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-1100</v>
       </c>
       <c r="O96" s="3">
         <v>-1100</v>
@@ -5835,22 +6069,25 @@
         <v>-1100</v>
       </c>
       <c r="S96" s="3">
-        <v>-1900</v>
+        <v>-1100</v>
       </c>
       <c r="T96" s="3">
         <v>-1900</v>
       </c>
       <c r="U96" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="V96" s="3">
         <v>-1800</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-7300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-13100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>20900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>7300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>13800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-11900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-8100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>12600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-34200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>21500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-55700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-17900</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6163,80 +6412,86 @@
         <v>0</v>
       </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-300</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E102" s="3">
         <v>5900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-9100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-29200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>16600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>19400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-18200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>7700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>39100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-18500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>33600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>21400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>NC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>49100</v>
+      </c>
+      <c r="E8" s="3">
         <v>51700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>45900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>45100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>23100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>32300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>35400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>37600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>32600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>41400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>40100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>39100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>31400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>33700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>31200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>26400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>21900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>28100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>28300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>111100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>32400</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E9" s="3">
         <v>37400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>36900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>37400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>21900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>25500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>31500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>32600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>24100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>26400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>32700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>26700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>25500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>25300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>28800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>25800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>21100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>19500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>23500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>23700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>99000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E10" s="3">
         <v>14300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>13400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>13600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2400</v>
-      </c>
-      <c r="U10" s="3">
-        <v>4600</v>
       </c>
       <c r="V10" s="3">
         <v>4600</v>
       </c>
       <c r="W10" s="3">
+        <v>4600</v>
+      </c>
+      <c r="X10" s="3">
         <v>12100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,25 +1143,28 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-10300</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>8400</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1165,11 +1184,11 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1177,94 +1196,100 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3">
         <v>1000</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="W14" s="3">
-        <v>17400</v>
       </c>
       <c r="X14" s="3">
         <v>17400</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E15" s="3">
         <v>900</v>
       </c>
       <c r="F15" s="3">
+        <v>900</v>
+      </c>
+      <c r="G15" s="3">
         <v>1000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>700</v>
-      </c>
-      <c r="I15" s="3">
-        <v>800</v>
       </c>
       <c r="J15" s="3">
         <v>800</v>
       </c>
       <c r="K15" s="3">
+        <v>800</v>
+      </c>
+      <c r="L15" s="3">
         <v>400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>400</v>
-      </c>
-      <c r="U15" s="3">
-        <v>600</v>
       </c>
       <c r="V15" s="3">
         <v>600</v>
       </c>
       <c r="W15" s="3">
+        <v>600</v>
+      </c>
+      <c r="X15" s="3">
         <v>2500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E17" s="3">
         <v>24200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>37200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>36800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>31200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>22900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>30900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>30100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>22300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>23900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>32200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>23700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>23500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>20900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>25900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>21500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>19900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>15000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>18600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>18500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>112700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E18" s="3">
         <v>27600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>8700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>8300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>16400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>15600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>9700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>9500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>9800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1480,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-100</v>
       </c>
       <c r="S20" s="3">
         <v>-100</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E21" s="3">
         <v>28100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>9800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>14600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>10500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>11000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>11700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>10400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>21400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>19100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>14900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>11900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>13000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>9600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>10100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>12700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>12900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>10700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1593,13 +1632,13 @@
         <v>500</v>
       </c>
       <c r="E22" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F22" s="3">
         <v>400</v>
       </c>
       <c r="G22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
@@ -1608,10 +1647,10 @@
         <v>300</v>
       </c>
       <c r="J22" s="3">
+        <v>300</v>
+      </c>
+      <c r="K22" s="3">
         <v>400</v>
-      </c>
-      <c r="K22" s="3">
-        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
@@ -1623,13 +1662,13 @@
         <v>200</v>
       </c>
       <c r="O22" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="P22" s="3">
         <v>400</v>
       </c>
       <c r="Q22" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="R22" s="3">
         <v>600</v>
@@ -1638,7 +1677,7 @@
         <v>600</v>
       </c>
       <c r="T22" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="U22" s="3">
         <v>900</v>
@@ -1647,149 +1686,158 @@
         <v>900</v>
       </c>
       <c r="W22" s="3">
+        <v>900</v>
+      </c>
+      <c r="X22" s="3">
         <v>4300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E23" s="3">
         <v>27400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>9400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>9900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>11600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>17300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>14900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>10700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>7600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>9000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>6000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>8600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>8800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-6700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-13700</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E24" s="3">
         <v>2600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-9600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E26" s="3">
         <v>24800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>6500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>10300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>15000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>11000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>9200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>8200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>8200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E27" s="3">
         <v>24800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>10300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>8000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>15000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>11000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>9200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>8200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>7200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>8200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2092,14 +2152,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -2111,25 +2171,28 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>3600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>5100</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-4100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-3200</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>26700</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
-      </c>
-      <c r="R32" s="3">
-        <v>100</v>
       </c>
       <c r="S32" s="3">
         <v>100</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E33" s="3">
         <v>24800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>10300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>8000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>15000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>11000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>9200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>8200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>10200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>8400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>5000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>29600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E35" s="3">
         <v>24800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>10300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>8000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>15000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>11000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>9200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>8200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>10200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>8400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>5000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>29600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E41" s="3">
         <v>87500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>85000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>79100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>88500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>97600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>95500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>93700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>122900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>115100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>98400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>79100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>85300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>83100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>80000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>83400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>101600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>93900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>60200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>56400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>69300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,484 +2886,508 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E43" s="3">
         <v>34500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>37500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>44300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>41300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>45600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>40300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>42100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>21900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>19600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>26300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>28100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>28800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>24500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>30600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>35700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>34500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>32000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>96300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>93200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>20800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>105000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>54100</v>
+      </c>
+      <c r="E44" s="3">
         <v>51000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>49700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>45100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>47600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>42400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>35700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>36000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>40500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>33100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>30900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>32800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>31200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>33200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>29200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>30100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>30000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>30600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>163800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>159000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>157300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>201300</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E45" s="3">
         <v>19500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>24200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>17100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>20000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>24000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>18900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>12700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>13100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>10800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>7700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>23700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>22300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>262700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>203100</v>
+      </c>
+      <c r="E46" s="3">
         <v>192400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>189300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>192800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>188100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>198600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>190700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>188900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>200700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>180300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>175600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>164000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>164200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>151500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>152400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>162300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>177000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>164200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>344000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>330900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>381700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>384200</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E47" s="3">
         <v>19300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>20900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>29800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>29000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>25500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>25300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>27400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>24600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>23100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>22400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>23300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>20100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>20000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>18400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>18700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>16300</v>
-      </c>
-      <c r="T47" s="3">
-        <v>27300</v>
       </c>
       <c r="U47" s="3">
         <v>27300</v>
       </c>
       <c r="V47" s="3">
+        <v>27300</v>
+      </c>
+      <c r="W47" s="3">
         <v>35900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>31100</v>
       </c>
-      <c r="X47" s="3" t="s">
+      <c r="Y47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>202100</v>
+      </c>
+      <c r="E48" s="3">
         <v>198600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>185100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>179100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>182700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>167000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>154000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>150700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>149500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>141300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>134400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>138300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>124600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>126100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>123600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>119800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>120100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>116300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>132100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>132200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>115100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>124600</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E49" s="3">
         <v>32500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>33400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>34300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>35300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>35600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>36300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>37100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>37900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>38300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>39000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>39900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>40500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>41300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>42100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>42900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>43600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>44000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>57300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>58300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>51900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>51200</v>
+      </c>
+      <c r="E52" s="3">
         <v>46100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>45200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>43200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>41000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>39100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>36600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>31800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>32100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>29800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>27800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>28300</v>
-      </c>
-      <c r="O52" s="3">
-        <v>27700</v>
       </c>
       <c r="P52" s="3">
         <v>27700</v>
       </c>
       <c r="Q52" s="3">
+        <v>27700</v>
+      </c>
+      <c r="R52" s="3">
         <v>29500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>30500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>32600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>33000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>60600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>63100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>94500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>507200</v>
+      </c>
+      <c r="E54" s="3">
         <v>488900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>474000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>479200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>476200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>465900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>443000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>435900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>444800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>412800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>399200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>393800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>377000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>366500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>366000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>374200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>389600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>384900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>621300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>620300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>668000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>664100</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,76 +3794,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E57" s="3">
         <v>14500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>14300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>8500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>104800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>87100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>7000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>157300</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3742,339 +3875,354 @@
         <v>2500</v>
       </c>
       <c r="E58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F58" s="3">
         <v>10200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>20100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>22100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>11900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>10600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>13000</v>
-      </c>
-      <c r="R58" s="3">
-        <v>16100</v>
       </c>
       <c r="S58" s="3">
         <v>16100</v>
       </c>
       <c r="T58" s="3">
+        <v>16100</v>
+      </c>
+      <c r="U58" s="3">
         <v>1200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>23500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>32700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E59" s="3">
         <v>23900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>19900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>24500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>21300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>21600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>17600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>44200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>43300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>40600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>36100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>29800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>23900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>23800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>16600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>30300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>33600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>57800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>47400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>228100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E60" s="3">
         <v>40900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>40400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>45900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>52300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>36600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>39300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>38100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>62000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>52800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>53200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>49600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>42200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>44200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>45900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>40800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>54000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>43200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>186000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>167200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>221800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>229500</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E61" s="3">
         <v>14500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>21800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>24300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>24400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>22200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>22500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>22600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>17100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>14900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>34700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>42000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>57600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>99900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>125300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>94300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>130500</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>90900</v>
+      </c>
+      <c r="E62" s="3">
         <v>92600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>96100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>99600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>98900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>100700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>81900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>81300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>76300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>69500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>66400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>72500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>77700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>75300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>74200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>73800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>74100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>77100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>104300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>103200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>131600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>107800</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>155100</v>
+      </c>
+      <c r="E66" s="3">
         <v>148000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>158300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>169900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>175600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>159400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>143700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>142100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>155400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>129500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>127000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>129500</v>
-      </c>
-      <c r="O66" s="3">
-        <v>126300</v>
       </c>
       <c r="P66" s="3">
         <v>126300</v>
       </c>
       <c r="Q66" s="3">
+        <v>126300</v>
+      </c>
+      <c r="R66" s="3">
         <v>135000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>149300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>170100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>177900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>390300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>395800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>447700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>467800</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>336800</v>
+      </c>
+      <c r="E72" s="3">
         <v>330400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>307000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>301900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>294300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>301000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>294400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>289700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>284900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>279800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>270900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>264200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>250400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>239800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>231800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>226500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>216500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>207400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>248200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>242400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>239400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>214700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>352100</v>
+      </c>
+      <c r="E76" s="3">
         <v>340900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>315700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>309400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>300600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>306500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>299300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>293800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>289400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>283300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>272200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>264300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>250700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>240200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>231000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>224900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>219400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>207100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>231000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>224500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>220300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>196300</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E81" s="3">
         <v>24800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>10300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>8000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>15000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>11000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>9200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>8200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>10200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>8400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>5000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>29600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5253,41 +5451,44 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>4500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>19300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E89" s="3">
         <v>38500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>30200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>15200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>18600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-31100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>25200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>22600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>15800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>20200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>26700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-8000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>14200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>31100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>40700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-36400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>99400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>5600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-8100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-26300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-10300</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-24800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-9800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6033,16 +6266,16 @@
         <v>-1400</v>
       </c>
       <c r="G96" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H96" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-1400</v>
       </c>
       <c r="I96" s="3">
         <v>-1400</v>
       </c>
       <c r="J96" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="K96" s="3">
         <v>-1300</v>
@@ -6054,10 +6287,10 @@
         <v>-1300</v>
       </c>
       <c r="N96" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-1100</v>
       </c>
       <c r="P96" s="3">
         <v>-1100</v>
@@ -6072,22 +6305,25 @@
         <v>-1100</v>
       </c>
       <c r="T96" s="3">
-        <v>-1900</v>
+        <v>-1100</v>
       </c>
       <c r="U96" s="3">
         <v>-1900</v>
       </c>
       <c r="V96" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="W96" s="3">
         <v>-1800</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-7300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6532,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-17000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-13100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>20900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-6700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-7500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>7300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>13800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-24000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-8100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>12600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-34200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>21500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-55700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-17900</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6415,83 +6663,89 @@
         <v>0</v>
       </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-300</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E102" s="3">
         <v>2500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-9300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-9100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-29200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>16600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>19400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-18200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>7700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>39100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-18500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>33600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>21400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>NC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E8" s="3">
         <v>49100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>51700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>45900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>45100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>23100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>32300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>35400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>37600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>26900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>32600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>41400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>40100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>39100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>31400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>33700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>31200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>26400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>21900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>28100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>28300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>111100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>32400</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E9" s="3">
         <v>36700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>37400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>36900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>37400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>21900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>25500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>31500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>32600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>24100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>26400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>32700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>26700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>25500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>25300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>28800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>25800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>21100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>19500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>23500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>23700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>99000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E10" s="3">
         <v>12400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>14300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>13400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>13600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2400</v>
-      </c>
-      <c r="V10" s="3">
-        <v>4600</v>
       </c>
       <c r="W10" s="3">
         <v>4600</v>
       </c>
       <c r="X10" s="3">
+        <v>4600</v>
+      </c>
+      <c r="Y10" s="3">
         <v>12100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,28 +1163,31 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-10300</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>8400</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1187,11 +1207,11 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1199,26 +1219,29 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3">
         <v>1000</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="X14" s="3">
-        <v>17400</v>
       </c>
       <c r="Y14" s="3">
         <v>17400</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1226,70 +1249,73 @@
         <v>800</v>
       </c>
       <c r="E15" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F15" s="3">
         <v>900</v>
       </c>
       <c r="G15" s="3">
+        <v>900</v>
+      </c>
+      <c r="H15" s="3">
         <v>1000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>700</v>
-      </c>
-      <c r="J15" s="3">
-        <v>800</v>
       </c>
       <c r="K15" s="3">
         <v>800</v>
       </c>
       <c r="L15" s="3">
+        <v>800</v>
+      </c>
+      <c r="M15" s="3">
         <v>400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>400</v>
-      </c>
-      <c r="V15" s="3">
-        <v>600</v>
       </c>
       <c r="W15" s="3">
         <v>600</v>
       </c>
       <c r="X15" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y15" s="3">
         <v>2500</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>40100</v>
+      </c>
+      <c r="E17" s="3">
         <v>38300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>24200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>37200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>36800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>31200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>22900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>30900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>30100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>22300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>32200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>23700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>23500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>20900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>25900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>21500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>19900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>15000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>18600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>18500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>112700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E18" s="3">
         <v>10800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>27600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>8700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>16400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>15600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>9700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>6900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>9500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>9800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,150 +1514,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-100</v>
       </c>
       <c r="T20" s="3">
         <v>-100</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E21" s="3">
         <v>12100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>28100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>9800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>14600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>10500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>11700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>10400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>21400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>19100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>14900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>11900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>13000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>9600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>10100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>12700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>12900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>10700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1635,13 +1675,13 @@
         <v>500</v>
       </c>
       <c r="F22" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G22" s="3">
         <v>400</v>
       </c>
       <c r="H22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I22" s="3">
         <v>300</v>
@@ -1650,10 +1690,10 @@
         <v>300</v>
       </c>
       <c r="K22" s="3">
+        <v>300</v>
+      </c>
+      <c r="L22" s="3">
         <v>400</v>
-      </c>
-      <c r="L22" s="3">
-        <v>200</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
@@ -1665,13 +1705,13 @@
         <v>200</v>
       </c>
       <c r="P22" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="3">
         <v>400</v>
       </c>
       <c r="R22" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="S22" s="3">
         <v>600</v>
@@ -1680,7 +1720,7 @@
         <v>600</v>
       </c>
       <c r="U22" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="V22" s="3">
         <v>900</v>
@@ -1689,155 +1729,164 @@
         <v>900</v>
       </c>
       <c r="X22" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y22" s="3">
         <v>4300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E23" s="3">
         <v>11300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>27400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>9400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>9900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>11600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>17300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>14900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>10700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>9000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>6000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>8600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>8800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-6700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-13700</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E24" s="3">
         <v>3500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-9600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E26" s="3">
         <v>7800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>24800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>10300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>15000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>11000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>9200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>8200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>6500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>7200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>8200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E27" s="3">
         <v>7800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>24800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>10300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>8000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>15000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>11000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>9200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>8200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>6500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>7200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>8200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2155,14 +2216,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2174,25 +2235,28 @@
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>3600</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>5100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-4100</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-3200</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>26700</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
-      </c>
-      <c r="S32" s="3">
-        <v>100</v>
       </c>
       <c r="T32" s="3">
         <v>100</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E33" s="3">
         <v>7800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>24800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>8000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>10300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>8000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>15000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>11000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>9200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>8200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>10200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>8400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>5000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>29600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E35" s="3">
         <v>7800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>24800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>8000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>10300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>8000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>15000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>11000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>9200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>8200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>10200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>8400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>5000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>29600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>81600</v>
+      </c>
+      <c r="E41" s="3">
         <v>86000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>87500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>85000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>79100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>88500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>97600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>95500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>93700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>122900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>115100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>98400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>79100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>85300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>83100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>80000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>83400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>101600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>93900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>60200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>56400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>69300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,505 +2979,529 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>45600</v>
+      </c>
+      <c r="E43" s="3">
         <v>46300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>34500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>37500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>44300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>41300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>45600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>40300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>42100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>21900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>19600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>26300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>28100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>28800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>24500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>30600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>35700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>34500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>32000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>96300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>93200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>20800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>105000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E44" s="3">
         <v>54100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>51000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>49700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>45100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>47600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>42400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>35700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>36000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>40500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>33100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>30900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>32800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>31200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>33200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>29200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>30100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>30000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>30600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>163800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>159000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>157300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>201300</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E45" s="3">
         <v>16600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>24200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>17100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>20000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>24000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>18900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>10800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>12700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>13100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>10800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>7700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>23700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>22300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>262700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>206700</v>
+      </c>
+      <c r="E46" s="3">
         <v>203100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>192400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>189300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>192800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>188100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>198600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>190700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>188900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>200700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>180300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>175600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>164000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>164200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>151500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>152400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>162300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>177000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>164200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>344000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>330900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>381700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>384200</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E47" s="3">
         <v>19100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>19300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>20900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>29800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>29000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>25500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>25300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>27400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>24600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>23100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>22400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>23300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>20100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>20000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>18400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>18700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>16300</v>
-      </c>
-      <c r="U47" s="3">
-        <v>27300</v>
       </c>
       <c r="V47" s="3">
         <v>27300</v>
       </c>
       <c r="W47" s="3">
+        <v>27300</v>
+      </c>
+      <c r="X47" s="3">
         <v>35900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>31100</v>
       </c>
-      <c r="Y47" s="3" t="s">
+      <c r="Z47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>205000</v>
+      </c>
+      <c r="E48" s="3">
         <v>202100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>198600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>185100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>179100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>182700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>167000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>154000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>150700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>149500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>141300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>134400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>138300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>124600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>126100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>123600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>119800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>120100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>116300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>132100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>132200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>115100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>124600</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E49" s="3">
         <v>31800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>32500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>33400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>34300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>35300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>35600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>36300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>37100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>37900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>38300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>39000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>39900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>40500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>41300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>42100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>42900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>43600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>44000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>57300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>58300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>51900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E52" s="3">
         <v>51200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>46100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>45200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>43200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>41000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>39100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>36600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>31800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>32100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>29800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>27800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>28300</v>
-      </c>
-      <c r="P52" s="3">
-        <v>27700</v>
       </c>
       <c r="Q52" s="3">
         <v>27700</v>
       </c>
       <c r="R52" s="3">
+        <v>27700</v>
+      </c>
+      <c r="S52" s="3">
         <v>29500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>30500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>32600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>33000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>60600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>63100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>94500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>513000</v>
+      </c>
+      <c r="E54" s="3">
         <v>507200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>488900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>474000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>479200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>476200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>465900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>443000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>435900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>444800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>412800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>399200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>393800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>377000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>366500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>366000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>374200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>389600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>384900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>621300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>620300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>668000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>664100</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +3925,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E57" s="3">
         <v>12900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>14500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>14300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>11700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>7600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>8500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>104800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>87100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>7000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>157300</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="E58" s="3">
         <v>2500</v>
       </c>
       <c r="F58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G58" s="3">
         <v>10200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>20100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>22100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>10600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>13000</v>
-      </c>
-      <c r="S58" s="3">
-        <v>16100</v>
       </c>
       <c r="T58" s="3">
         <v>16100</v>
       </c>
       <c r="U58" s="3">
+        <v>16100</v>
+      </c>
+      <c r="V58" s="3">
         <v>1200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>23500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>32700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E59" s="3">
         <v>30500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>23900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>19900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>24500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>21300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>21600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>17600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>44200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>43300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>40600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>36100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>29800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>23900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>23800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>16600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>30300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>33600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>57800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>47400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>228100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E60" s="3">
         <v>46000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>40900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>40400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>45900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>52300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>36600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>39300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>38100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>62000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>52800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>53200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>49600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>42200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>44200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>45900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>40800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>54000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>43200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>186000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>167200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>221800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>229500</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E61" s="3">
         <v>18200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>14500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>21800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>24300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>24400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>22200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>22500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>22600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>17100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>14900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>34700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>42000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>57600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>99900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>125300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>94300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>130500</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>89500</v>
+      </c>
+      <c r="E62" s="3">
         <v>90900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>92600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>96100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>99600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>98900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>100700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>81900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>81300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>76300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>69500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>66400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>72500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>77700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>75300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>74200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>73800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>74100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>77100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>104300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>103200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>131600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>107800</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>148500</v>
+      </c>
+      <c r="E66" s="3">
         <v>155100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>148000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>158300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>169900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>175600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>159400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>143700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>142100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>155400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>129500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>127000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>129500</v>
-      </c>
-      <c r="P66" s="3">
-        <v>126300</v>
       </c>
       <c r="Q66" s="3">
         <v>126300</v>
       </c>
       <c r="R66" s="3">
+        <v>126300</v>
+      </c>
+      <c r="S66" s="3">
         <v>135000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>149300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>170100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>177900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>390300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>395800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>447700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>467800</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>347900</v>
+      </c>
+      <c r="E72" s="3">
         <v>336800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>330400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>307000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>301900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>294300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>301000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>294400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>289700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>284900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>279800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>270900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>264200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>250400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>239800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>231800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>226500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>216500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>207400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>248200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>242400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>239400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>214700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>364500</v>
+      </c>
+      <c r="E76" s="3">
         <v>352100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>340900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>315700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>309400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>300600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>306500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>299300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>293800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>289400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>283300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>272200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>264300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>250700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>240200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>231000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>224900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>219400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>207100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>231000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>224500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>220300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>196300</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E81" s="3">
         <v>7800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>24800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>8000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>10300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>8000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>15000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>11000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>9200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>8200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>10200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>8400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>5000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>29600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5454,41 +5653,44 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>4400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>4500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>19300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E89" s="3">
         <v>7100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>38500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>30200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>15200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>18600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-31100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>25200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>22600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>15800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>20200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>26700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-8000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>14200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>31100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>40700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-36400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>99400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E91" s="3">
         <v>30200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>5600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-8100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-26300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-10300</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-19000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-24800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-9300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-9800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6269,16 +6503,16 @@
         <v>-1400</v>
       </c>
       <c r="H96" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I96" s="3">
         <v>-1300</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-1400</v>
       </c>
       <c r="J96" s="3">
         <v>-1400</v>
       </c>
       <c r="K96" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="L96" s="3">
         <v>-1300</v>
@@ -6290,10 +6524,10 @@
         <v>-1300</v>
       </c>
       <c r="O96" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1200</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-1100</v>
       </c>
       <c r="Q96" s="3">
         <v>-1100</v>
@@ -6308,22 +6542,25 @@
         <v>-1100</v>
       </c>
       <c r="U96" s="3">
-        <v>-1900</v>
+        <v>-1100</v>
       </c>
       <c r="V96" s="3">
         <v>-1900</v>
       </c>
       <c r="W96" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="X96" s="3">
         <v>-1800</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-7300</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,79 +6778,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-17000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-13100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>20900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-6700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>7300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>13800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-11900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-24000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-8100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>12600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-34200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>21500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-55700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-17900</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6666,86 +6915,92 @@
         <v>0</v>
       </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-300</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-9300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-9100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-29200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>16600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>19400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-18200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>7700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>39100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>4000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-18500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>33600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>21400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>NC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>61400</v>
+      </c>
+      <c r="E8" s="3">
         <v>55000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>49100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>51700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>45900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>45100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>23100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>32300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>35400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>37600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>26900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>32600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>41400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>40100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>39100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>31400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>33700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>31200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>26400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>21900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>28100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>28300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>111100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>32400</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E9" s="3">
         <v>39200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>36700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>37400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>36900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>37400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>21900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>25500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>31500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>32600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>24100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>26400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>32700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>26700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>25500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>25300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>28800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>25800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>21100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>19500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>23500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>23700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>99000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E10" s="3">
         <v>15800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>12400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>14300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>13400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>13600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2400</v>
-      </c>
-      <c r="W10" s="3">
-        <v>4600</v>
       </c>
       <c r="X10" s="3">
         <v>4600</v>
       </c>
       <c r="Y10" s="3">
+        <v>4600</v>
+      </c>
+      <c r="Z10" s="3">
         <v>12100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,31 +1183,34 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-10300</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>8400</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1210,11 +1230,11 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1222,100 +1242,106 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
         <v>1000</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>17400</v>
       </c>
       <c r="Z14" s="3">
         <v>17400</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="E15" s="3">
         <v>800</v>
       </c>
       <c r="F15" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G15" s="3">
         <v>900</v>
       </c>
       <c r="H15" s="3">
+        <v>900</v>
+      </c>
+      <c r="I15" s="3">
         <v>1000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>700</v>
-      </c>
-      <c r="K15" s="3">
-        <v>800</v>
       </c>
       <c r="L15" s="3">
         <v>800</v>
       </c>
       <c r="M15" s="3">
+        <v>800</v>
+      </c>
+      <c r="N15" s="3">
         <v>400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>400</v>
-      </c>
-      <c r="W15" s="3">
-        <v>600</v>
       </c>
       <c r="X15" s="3">
         <v>600</v>
       </c>
       <c r="Y15" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z15" s="3">
         <v>2500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E17" s="3">
         <v>40100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>38300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>24200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>37200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>36800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>31200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>22900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>30900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>30100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>22300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>23900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>32200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>23700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>23500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>20900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>25900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>21500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>19900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>15000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>18600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>18500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>112700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>46600</v>
+      </c>
+      <c r="E18" s="3">
         <v>14900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>10800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>27600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>8700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>9200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>16400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>15600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>10500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>9700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>6500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>6900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>9500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>9800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,156 +1548,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-100</v>
       </c>
       <c r="U20" s="3">
         <v>-100</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E21" s="3">
         <v>21600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>28100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>14600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>10500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>11000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>11700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>10400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>21400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>19100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>14900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>11900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>13000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>9600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>10100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>12700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>12900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>10700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1678,13 +1718,13 @@
         <v>500</v>
       </c>
       <c r="G22" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H22" s="3">
         <v>400</v>
       </c>
       <c r="I22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J22" s="3">
         <v>300</v>
@@ -1693,10 +1733,10 @@
         <v>300</v>
       </c>
       <c r="L22" s="3">
+        <v>300</v>
+      </c>
+      <c r="M22" s="3">
         <v>400</v>
-      </c>
-      <c r="M22" s="3">
-        <v>200</v>
       </c>
       <c r="N22" s="3">
         <v>200</v>
@@ -1708,13 +1748,13 @@
         <v>200</v>
       </c>
       <c r="Q22" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="R22" s="3">
         <v>400</v>
       </c>
       <c r="S22" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T22" s="3">
         <v>600</v>
@@ -1723,7 +1763,7 @@
         <v>600</v>
       </c>
       <c r="V22" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="W22" s="3">
         <v>900</v>
@@ -1732,161 +1772,170 @@
         <v>900</v>
       </c>
       <c r="Y22" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z22" s="3">
         <v>4300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E23" s="3">
         <v>14900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>11300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>27400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>9400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>9900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>11600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>9800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>17300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>14900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>10700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>9000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>6000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>8600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>8800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-6700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-13700</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E24" s="3">
         <v>2400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-9600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E26" s="3">
         <v>12600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>7800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>24800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>10300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>8000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>15000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>11000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>9200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>8200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>6500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>7200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>8200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>3000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E27" s="3">
         <v>12600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>7800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>24800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>10300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>8000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>15000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>11000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>9200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>8200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>6500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>7200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>8200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>3000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2219,14 +2280,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -2238,25 +2299,28 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>3600</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>5100</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-4100</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>26700</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
-      </c>
-      <c r="T32" s="3">
-        <v>100</v>
       </c>
       <c r="U32" s="3">
         <v>100</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E33" s="3">
         <v>12600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>24800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>10300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>8000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>15000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>11000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>9200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>8200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>10200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>8400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>5000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>29600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E35" s="3">
         <v>12600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>24800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>10300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>8000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>15000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>11000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>9200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>8200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>10200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>8400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>5000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>29600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>97100</v>
+      </c>
+      <c r="E41" s="3">
         <v>81600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>86000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>87500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>85000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>79100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>88500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>97600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>95500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>93700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>122900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>115100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>98400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>79100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>85300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>83100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>80000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>83400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>101600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>93900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>60200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>56400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>69300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,526 +3072,550 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E43" s="3">
         <v>45600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>46300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>34500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>37500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>44300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>41300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>45600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>40300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>42100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>21900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>19600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>26300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>28100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>28800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>24500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>30600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>35700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>34500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>32000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>96300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>93200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>20800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>105000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E44" s="3">
         <v>56000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>54100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>51000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>49700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>45100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>47600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>42400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>35700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>36000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>40500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>33100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>30900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>32800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>31200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>33200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>29200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>30100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>30000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>30600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>163800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>159000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>157300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>201300</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E45" s="3">
         <v>23500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>24200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>17100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>20000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>24000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>18900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>10800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>12700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>13100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>10800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>7700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>23700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>22300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>262700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>218600</v>
+      </c>
+      <c r="E46" s="3">
         <v>206700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>203100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>192400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>189300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>192800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>188100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>198600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>190700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>188900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>200700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>180300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>175600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>164000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>164200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>151500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>152400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>162300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>177000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>164200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>344000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>330900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>381700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>384200</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E47" s="3">
         <v>18500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>19100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>19300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>20900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>29800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>29000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>25500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>25300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>27400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>24600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>23100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>22400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>23300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>20100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>20000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>18400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>18700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>16300</v>
-      </c>
-      <c r="V47" s="3">
-        <v>27300</v>
       </c>
       <c r="W47" s="3">
         <v>27300</v>
       </c>
       <c r="X47" s="3">
+        <v>27300</v>
+      </c>
+      <c r="Y47" s="3">
         <v>35900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>31100</v>
       </c>
-      <c r="Z47" s="3" t="s">
+      <c r="AA47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>218700</v>
+      </c>
+      <c r="E48" s="3">
         <v>205000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>202100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>198600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>185100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>179100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>182700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>167000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>154000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>150700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>149500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>141300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>134400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>138300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>124600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>126100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>123600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>119800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>120100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>116300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>132100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>132200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>115100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>124600</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E49" s="3">
         <v>30900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>31800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>32500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>33400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>34300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>35300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>35600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>36300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>37100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>37900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>38300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>39000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>39900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>40500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>41300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>42100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>42900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>43600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>44000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>57300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>58300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>51900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E52" s="3">
         <v>51900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>51200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>46100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>45200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>43200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>41000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>39100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>36600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>31800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>32100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>29800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>27800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>28300</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>27700</v>
       </c>
       <c r="R52" s="3">
         <v>27700</v>
       </c>
       <c r="S52" s="3">
+        <v>27700</v>
+      </c>
+      <c r="T52" s="3">
         <v>29500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>30500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>32600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>33000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>60600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>63100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>94500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>547300</v>
+      </c>
+      <c r="E54" s="3">
         <v>513000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>507200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>488900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>474000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>479200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>476200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>465900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>443000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>435900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>444800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>412800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>399200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>393800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>377000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>366500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>366000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>374200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>389600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>384900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>621300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>620300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>668000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>664100</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E57" s="3">
         <v>11900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>12900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>14500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>14300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>8200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>7600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>8500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>104800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>87100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>7000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>157300</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E58" s="3">
         <v>3000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>2500</v>
       </c>
       <c r="F58" s="3">
         <v>2500</v>
       </c>
       <c r="G58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H58" s="3">
         <v>10200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>20100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>22100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>11900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>10600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>13000</v>
-      </c>
-      <c r="T58" s="3">
-        <v>16100</v>
       </c>
       <c r="U58" s="3">
         <v>16100</v>
       </c>
       <c r="V58" s="3">
+        <v>16100</v>
+      </c>
+      <c r="W58" s="3">
         <v>1200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>23500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>32700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E59" s="3">
         <v>21500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>30500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>23900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>19900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>24500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>21300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>44200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>43300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>40600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>36100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>29800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>23900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>23800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>16600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>30300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>33600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>57800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>47400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>228100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E60" s="3">
         <v>36400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>46000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>40900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>40400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>45900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>52300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>36600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>39300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>38100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>62000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>52800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>53200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>49600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>42200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>44200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>45900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>40800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>54000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>43200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>186000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>167200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>221800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>229500</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E61" s="3">
         <v>22600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>18200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>14500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>21800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>24300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>24400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>22200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>22500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>22600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>17100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>14900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>34700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>42000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>57600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>99900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>125300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>94300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>130500</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>85600</v>
+      </c>
+      <c r="E62" s="3">
         <v>89500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>90900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>92600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>96100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>99600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>98900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>100700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>81900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>81300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>76300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>69500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>66400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>72500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>77700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>75300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>74200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>73800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>74100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>77100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>104300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>103200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>131600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>107800</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>144700</v>
+      </c>
+      <c r="E66" s="3">
         <v>148500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>155100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>148000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>158300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>169900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>175600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>159400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>143700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>142100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>155400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>129500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>127000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>129500</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>126300</v>
       </c>
       <c r="R66" s="3">
         <v>126300</v>
       </c>
       <c r="S66" s="3">
+        <v>126300</v>
+      </c>
+      <c r="T66" s="3">
         <v>135000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>149300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>170100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>177900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>390300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>395800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>447700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>467800</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>383600</v>
+      </c>
+      <c r="E72" s="3">
         <v>347900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>336800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>330400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>307000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>301900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>294300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>301000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>294400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>289700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>284900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>279800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>270900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>264200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>250400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>239800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>231800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>226500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>216500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>207400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>248200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>242400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>239400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>214700</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>402600</v>
+      </c>
+      <c r="E76" s="3">
         <v>364500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>352100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>340900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>315700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>309400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>300600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>306500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>299300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>293800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>289400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>283300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>272200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>264300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>250700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>240200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>231000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>224900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>219400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>207100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>231000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>224500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>220300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>196300</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E81" s="3">
         <v>12600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>7800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>24800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>10300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>8000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>15000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>11000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>9200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>8200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>10200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>8400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>5000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>29600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5656,41 +5855,44 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>4400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>4500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>19300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>38500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>30200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>15200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>18600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-31100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>25200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>22600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>15800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>20200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>26700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-8000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>14200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>31100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>40700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-36400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>99400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>30200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>5600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-8100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-26300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-10300</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-19000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-24800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-9800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,13 +6718,14 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="E96" s="3">
         <v>-1400</v>
@@ -6506,16 +6740,16 @@
         <v>-1400</v>
       </c>
       <c r="I96" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J96" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-1400</v>
       </c>
       <c r="K96" s="3">
         <v>-1400</v>
       </c>
       <c r="L96" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="M96" s="3">
         <v>-1300</v>
@@ -6527,10 +6761,10 @@
         <v>-1300</v>
       </c>
       <c r="P96" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1200</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-1100</v>
       </c>
       <c r="R96" s="3">
         <v>-1100</v>
@@ -6545,22 +6779,25 @@
         <v>-1100</v>
       </c>
       <c r="V96" s="3">
-        <v>-1900</v>
+        <v>-1100</v>
       </c>
       <c r="W96" s="3">
         <v>-1900</v>
       </c>
       <c r="X96" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-7300</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,82 +7024,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E100" s="3">
         <v>1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-17000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-13100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>20900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-6700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>7300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>13800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-8600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-11900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-24000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-8100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>12600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-34200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>21500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-55700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-17900</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6918,89 +7167,95 @@
         <v>0</v>
       </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>-300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-300</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-9300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-9100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-29200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>16600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>19400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-18200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>7700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>39100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>4000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-18500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>33600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>21400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>NC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>61800</v>
+      </c>
+      <c r="E8" s="3">
         <v>61400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>55000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>49100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>51700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>45900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>45100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>23100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>32300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>35400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>37600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>26900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>32600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>41400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>40100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>39100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>31400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>33700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>31200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>26400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>21900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>28100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>28300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>111100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>32400</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E9" s="3">
         <v>45700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>39200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>36700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>37400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>36900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>37400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>21900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>25500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>31500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>32600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>24100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>26400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>32700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>26700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>25500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>25300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>28800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>25800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>21100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>19500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>23500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>23700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>99000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E10" s="3">
         <v>15700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>15800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>12400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>14300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>13400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>13600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2400</v>
-      </c>
-      <c r="X10" s="3">
-        <v>4600</v>
       </c>
       <c r="Y10" s="3">
         <v>4600</v>
       </c>
       <c r="Z10" s="3">
+        <v>4600</v>
+      </c>
+      <c r="AA10" s="3">
         <v>12100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,34 +1203,37 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E14" s="3">
         <v>-30900</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-10300</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>8400</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1233,11 +1253,11 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1245,103 +1265,109 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3">
         <v>1000</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>17400</v>
       </c>
       <c r="AA14" s="3">
         <v>17400</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>900</v>
+      </c>
+      <c r="E15" s="3">
         <v>1100</v>
-      </c>
-      <c r="E15" s="3">
-        <v>800</v>
       </c>
       <c r="F15" s="3">
         <v>800</v>
       </c>
       <c r="G15" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H15" s="3">
         <v>900</v>
       </c>
       <c r="I15" s="3">
+        <v>900</v>
+      </c>
+      <c r="J15" s="3">
         <v>1000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>700</v>
-      </c>
-      <c r="L15" s="3">
-        <v>800</v>
       </c>
       <c r="M15" s="3">
         <v>800</v>
       </c>
       <c r="N15" s="3">
+        <v>800</v>
+      </c>
+      <c r="O15" s="3">
         <v>400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>400</v>
-      </c>
-      <c r="X15" s="3">
-        <v>600</v>
       </c>
       <c r="Y15" s="3">
         <v>600</v>
       </c>
       <c r="Z15" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA15" s="3">
         <v>2500</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E17" s="3">
         <v>14800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>40100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>38300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>24200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>37200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>36800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>31200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>22900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>30900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>30100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>22300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>23900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>32200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>23700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>23500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>20900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>25900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>21500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>19900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>15000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>18600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>18500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>112700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E18" s="3">
         <v>46600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>14900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>27600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>8700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>9200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>16400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>15600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>10500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>7800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>9700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>6500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>6900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>9500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>9800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,162 +1582,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-100</v>
       </c>
       <c r="V20" s="3">
         <v>-100</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E21" s="3">
         <v>45900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>21600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>12100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>28100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>14600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>11000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>11700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>10400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>21400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>19100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>14900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>11900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>13000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>9600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>10100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>12700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>12900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>10700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1721,13 +1761,13 @@
         <v>500</v>
       </c>
       <c r="H22" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I22" s="3">
         <v>400</v>
       </c>
       <c r="J22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K22" s="3">
         <v>300</v>
@@ -1736,10 +1776,10 @@
         <v>300</v>
       </c>
       <c r="M22" s="3">
+        <v>300</v>
+      </c>
+      <c r="N22" s="3">
         <v>400</v>
-      </c>
-      <c r="N22" s="3">
-        <v>200</v>
       </c>
       <c r="O22" s="3">
         <v>200</v>
@@ -1751,13 +1791,13 @@
         <v>200</v>
       </c>
       <c r="R22" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="S22" s="3">
         <v>400</v>
       </c>
       <c r="T22" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="U22" s="3">
         <v>600</v>
@@ -1766,7 +1806,7 @@
         <v>600</v>
       </c>
       <c r="W22" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="X22" s="3">
         <v>900</v>
@@ -1775,167 +1815,176 @@
         <v>900</v>
       </c>
       <c r="Z22" s="3">
+        <v>900</v>
+      </c>
+      <c r="AA22" s="3">
         <v>4300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E23" s="3">
         <v>45100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>14900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>11300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>27400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>9400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>11600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>9800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>17300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>14900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>10700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>7600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>9000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>6000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>8600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>8800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-6700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-13700</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>900</v>
+      </c>
+      <c r="E24" s="3">
         <v>7900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-9600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E26" s="3">
         <v>37200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>12600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>7800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>24800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>10300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>8000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>15000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>11000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>9200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>6400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>8200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>6500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>7200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>8200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>3000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E27" s="3">
         <v>37200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>12600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>24800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>10300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>8000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>15000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>11000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>9200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>6400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>8200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>6500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>7200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>8200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>3000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2283,14 +2344,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2302,25 +2363,28 @@
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>3600</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>5100</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>26700</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
-      </c>
-      <c r="U32" s="3">
-        <v>100</v>
       </c>
       <c r="V32" s="3">
         <v>100</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E33" s="3">
         <v>37200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>12600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>24800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>10300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>8000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>15000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>11000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>9200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>6400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>8200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>10200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>8400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>5000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>29600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E35" s="3">
         <v>37200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>12600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>24800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>10300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>8000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>15000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>11000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>9200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>6400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>8200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>10200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>8400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>5000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>29600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>92800</v>
+      </c>
+      <c r="E41" s="3">
         <v>97100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>81600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>86000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>87500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>85000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>79100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>88500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>97600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>95500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>93700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>122900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>115100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>98400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>79100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>85300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>83100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>80000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>83400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>101600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>93900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>60200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>56400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>69300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,547 +3165,571 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E43" s="3">
         <v>42500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>45600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>46300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>34500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>37500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>44300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>41300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>45600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>40300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>42100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>21900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>19600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>26300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>28100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>28800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>24500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>30600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>35700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>34500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>32000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>96300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>93200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>20800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>105000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>61800</v>
+      </c>
+      <c r="E44" s="3">
         <v>57000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>56000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>54100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>51000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>49700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>45100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>47600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>42400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>35700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>36000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>40500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>33100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>30900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>32800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>31200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>33200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>29200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>30100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>30000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>30600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>163800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>159000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>157300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>201300</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E45" s="3">
         <v>22000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>23500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>17000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>24200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>19100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>17100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>15500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>20000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>24000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>18900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>10800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>12700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>13100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>10800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>7700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>23700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>22300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>262700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>229300</v>
+      </c>
+      <c r="E46" s="3">
         <v>218600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>206700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>203100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>192400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>189300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>192800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>188100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>198600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>190700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>188900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>200700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>180300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>175600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>164000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>164200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>151500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>152400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>162300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>177000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>164200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>344000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>330900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>381700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>384200</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E47" s="3">
         <v>33200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>18500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>19100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>19300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>20900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>29800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>29000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>25500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>25300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>27400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>24600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>23100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>22400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>23300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>20100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>20000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>18400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>18700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>16300</v>
-      </c>
-      <c r="W47" s="3">
-        <v>27300</v>
       </c>
       <c r="X47" s="3">
         <v>27300</v>
       </c>
       <c r="Y47" s="3">
+        <v>27300</v>
+      </c>
+      <c r="Z47" s="3">
         <v>35900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>31100</v>
       </c>
-      <c r="AA47" s="3" t="s">
+      <c r="AB47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>221300</v>
+      </c>
+      <c r="E48" s="3">
         <v>218700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>205000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>202100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>198600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>185100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>179100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>182700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>167000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>154000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>150700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>149500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>141300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>134400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>138300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>124600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>126100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>123600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>119800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>120100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>116300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>132100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>132200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>115100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>124600</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E49" s="3">
         <v>29900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>30900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>31800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>32500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>33400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>34300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>35300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>35600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>36300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>37100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>37900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>38300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>39000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>39900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>40500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>41300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>42100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>42900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>43600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>44000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>57300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>58300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>51900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E52" s="3">
         <v>47000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>51900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>51200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>46100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>45200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>43200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>41000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>39100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>36600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>31800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>32100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>29800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>27800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>28300</v>
-      </c>
-      <c r="R52" s="3">
-        <v>27700</v>
       </c>
       <c r="S52" s="3">
         <v>27700</v>
       </c>
       <c r="T52" s="3">
+        <v>27700</v>
+      </c>
+      <c r="U52" s="3">
         <v>29500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>30500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>32600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>33000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>60600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>63100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>94500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>560200</v>
+      </c>
+      <c r="E54" s="3">
         <v>547300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>513000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>507200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>488900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>474000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>479200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>476200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>465900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>443000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>435900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>444800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>412800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>399200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>393800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>377000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>366500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>366000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>374200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>389600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>384900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>621300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>620300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>668000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>664100</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E57" s="3">
         <v>17400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>12900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>14500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>14300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>8200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>7600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>8500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>104800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>87100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>7000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>157300</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>2500</v>
       </c>
       <c r="G58" s="3">
         <v>2500</v>
       </c>
       <c r="H58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I58" s="3">
         <v>10200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>20100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>22100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>11900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>10600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>13000</v>
-      </c>
-      <c r="U58" s="3">
-        <v>16100</v>
       </c>
       <c r="V58" s="3">
         <v>16100</v>
       </c>
       <c r="W58" s="3">
+        <v>16100</v>
+      </c>
+      <c r="X58" s="3">
         <v>1200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>23500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>32700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E59" s="3">
         <v>23300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>30500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>23900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>19900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>17600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>24500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>21600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>44200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>43300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>40600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>36100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>29800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>23900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>23800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>16600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>30300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>33600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>57800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>47400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>228100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E60" s="3">
         <v>43600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>36400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>46000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>40900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>40400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>45900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>52300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>36600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>39300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>38100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>62000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>52800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>53200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>49600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>42200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>44200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>45900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>40800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>54000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>43200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>186000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>167200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>221800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>229500</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E61" s="3">
         <v>15500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>22600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>18200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>14500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>21800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>24300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>24400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>22200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>22500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>22600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>17100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>14900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>34700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>42000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>57600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>99900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>125300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>94300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>130500</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>85500</v>
+      </c>
+      <c r="E62" s="3">
         <v>85600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>89500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>90900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>92600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>96100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>99600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>98900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>100700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>81900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>81300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>76300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>69500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>66400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>72500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>77700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>75300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>74200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>73800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>74100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>77100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>104300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>103200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>131600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>107800</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>144800</v>
+      </c>
+      <c r="E66" s="3">
         <v>144700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>148500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>155100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>148000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>158300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>169900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>175600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>159400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>143700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>142100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>155400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>129500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>127000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>129500</v>
-      </c>
-      <c r="R66" s="3">
-        <v>126300</v>
       </c>
       <c r="S66" s="3">
         <v>126300</v>
       </c>
       <c r="T66" s="3">
+        <v>126300</v>
+      </c>
+      <c r="U66" s="3">
         <v>135000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>149300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>170100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>177900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>390300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>395800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>447700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>467800</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>392700</v>
+      </c>
+      <c r="E72" s="3">
         <v>383600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>347900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>336800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>330400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>307000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>301900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>294300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>301000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>294400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>289700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>284900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>279800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>270900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>264200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>250400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>239800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>231800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>226500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>216500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>207400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>248200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>242400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>239400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>214700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>415400</v>
+      </c>
+      <c r="E76" s="3">
         <v>402600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>364500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>352100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>340900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>315700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>309400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>300600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>306500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>299300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>293800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>289400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>283300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>272200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>264300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>250700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>240200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>231000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>224900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>219400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>207100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>231000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>224500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>220300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>196300</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E81" s="3">
         <v>37200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>12600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>24800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>10300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>8000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>15000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>11000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>9200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>6400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>8200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>10200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>8400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>5000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>29600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5858,41 +6057,44 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>4400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>4500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>19300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E89" s="3">
         <v>41600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>38500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>30200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>15200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>18600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-31100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>25200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>22600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>15800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>20200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>26700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-8000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>14200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>31100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>40700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-36400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>99400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-20300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>30200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>5600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-8100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-26300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-10300</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-17600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-19000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-24800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-9800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6728,7 +6962,7 @@
         <v>-1500</v>
       </c>
       <c r="E96" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="F96" s="3">
         <v>-1400</v>
@@ -6743,16 +6977,16 @@
         <v>-1400</v>
       </c>
       <c r="J96" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-1400</v>
       </c>
       <c r="L96" s="3">
         <v>-1400</v>
       </c>
       <c r="M96" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="N96" s="3">
         <v>-1300</v>
@@ -6764,10 +6998,10 @@
         <v>-1300</v>
       </c>
       <c r="Q96" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1200</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-1100</v>
       </c>
       <c r="S96" s="3">
         <v>-1100</v>
@@ -6782,22 +7016,25 @@
         <v>-1100</v>
       </c>
       <c r="W96" s="3">
-        <v>-1900</v>
+        <v>-1100</v>
       </c>
       <c r="X96" s="3">
         <v>-1900</v>
       </c>
       <c r="Y96" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-7300</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,85 +7270,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-17000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-13100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>20900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>7300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>13800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-8600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-11900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-24000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-8100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>12600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-34200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>21500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-55700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-17900</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7170,92 +7419,98 @@
         <v>0</v>
       </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-300</v>
       </c>
-      <c r="AA101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E102" s="3">
         <v>15500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-9300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-29200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>7800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>16600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>19400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-18200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>7700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>39100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>4000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-18500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>33600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>21400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>NC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,384 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>63500</v>
+      </c>
+      <c r="F8" s="3">
         <v>61800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>61400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>55000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>49100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>51700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>45900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>45100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>23100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>32300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>35400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>37600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>26900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>32600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>41400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>40100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>39100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>31400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>33700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>31200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>26400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>21900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>28100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>28300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>111100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>32400</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>46800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>45000</v>
+      </c>
+      <c r="F9" s="3">
         <v>44000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>45700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>39200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>36700</v>
-      </c>
-      <c r="H9" s="3">
-        <v>37400</v>
-      </c>
-      <c r="I9" s="3">
-        <v>36900</v>
       </c>
       <c r="J9" s="3">
         <v>37400</v>
       </c>
       <c r="K9" s="3">
+        <v>36900</v>
+      </c>
+      <c r="L9" s="3">
+        <v>37400</v>
+      </c>
+      <c r="M9" s="3">
         <v>21900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>25500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>31500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>32600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>24100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>26400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>32700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>26700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>25500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>25300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>28800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>25800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>21100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>19500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>23500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>23700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>99000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F10" s="3">
         <v>17800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>15700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>15800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>12400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>14300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>9000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>7700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>6800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>3900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>5000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>6200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>8700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>13400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>13600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>6100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>4900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>5400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>5300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>2400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>4600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>4600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>12100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,40 +1239,46 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>3900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-30900</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-10300</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
-        <v>8400</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>8400</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1256,91 +1295,97 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="3">
         <v>1000</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3" t="s">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>17400</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AD14" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>700</v>
+      </c>
+      <c r="E15" s="3">
         <v>900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
+        <v>900</v>
+      </c>
+      <c r="G15" s="3">
         <v>1100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>1000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>600</v>
-      </c>
-      <c r="S15" s="3">
-        <v>800</v>
-      </c>
-      <c r="T15" s="3">
-        <v>700</v>
       </c>
       <c r="U15" s="3">
         <v>800</v>
@@ -1349,25 +1394,31 @@
         <v>700</v>
       </c>
       <c r="W15" s="3">
+        <v>800</v>
+      </c>
+      <c r="X15" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y15" s="3">
         <v>500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>600</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>600</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>2500</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AD15" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1444,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>48000</v>
+      </c>
+      <c r="F17" s="3">
         <v>52000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>14800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>40100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>38300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>24200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>37200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>36800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>31200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>22900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>30900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>30100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>22300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>23900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>32200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>23700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>23500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>20900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>25900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>21500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>19900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>15000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>18600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>18500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>112700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>15500</v>
+      </c>
+      <c r="F18" s="3">
         <v>9800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>46600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>14900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>10800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>27600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>8700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>8300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-8100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>9400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>4500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>7500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>4600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>8700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>9200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>16400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>15600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>10500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>7800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>9700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>6500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>6900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>9500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>9800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,168 +1648,182 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F20" s="3">
         <v>2100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>3200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>17800</v>
+      </c>
+      <c r="F21" s="3">
         <v>12000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>45900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>21600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>12100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>28100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>9800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>14600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-7800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>10500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>6000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>11000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>5000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>11700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>10400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>21400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>19100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>14900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>11900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>13000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>9600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>10100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>12700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>12900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>10700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1764,28 +1843,28 @@
         <v>500</v>
       </c>
       <c r="I22" s="3">
+        <v>500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>500</v>
+      </c>
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>400</v>
-      </c>
-      <c r="K22" s="3">
-        <v>300</v>
-      </c>
-      <c r="L22" s="3">
-        <v>300</v>
       </c>
       <c r="M22" s="3">
         <v>300</v>
       </c>
       <c r="N22" s="3">
+        <v>300</v>
+      </c>
+      <c r="O22" s="3">
+        <v>300</v>
+      </c>
+      <c r="P22" s="3">
         <v>400</v>
-      </c>
-      <c r="O22" s="3">
-        <v>200</v>
-      </c>
-      <c r="P22" s="3">
-        <v>200</v>
       </c>
       <c r="Q22" s="3">
         <v>200</v>
@@ -1794,197 +1873,215 @@
         <v>200</v>
       </c>
       <c r="S22" s="3">
+        <v>200</v>
+      </c>
+      <c r="T22" s="3">
+        <v>200</v>
+      </c>
+      <c r="U22" s="3">
         <v>400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>400</v>
-      </c>
-      <c r="U22" s="3">
-        <v>600</v>
-      </c>
-      <c r="V22" s="3">
-        <v>600</v>
       </c>
       <c r="W22" s="3">
         <v>600</v>
       </c>
       <c r="X22" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="Y22" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="Z22" s="3">
         <v>900</v>
       </c>
       <c r="AA22" s="3">
+        <v>900</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>900</v>
+      </c>
+      <c r="AC22" s="3">
         <v>4300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>16200</v>
+      </c>
+      <c r="F23" s="3">
         <v>11500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>45100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>14900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>11300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>27400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>9400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>8700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-7300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>9900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>5600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>6100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>4700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>11600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>9800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>17300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>14900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>10700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>7600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>9000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>5800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>6000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>8600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>8800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-6700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-13700</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>7900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>2400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>3500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>2600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>2900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-1900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-1700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>1400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>1800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>2300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>3900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>1500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>1200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>2600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>1300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>-9600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F26" s="3">
         <v>10600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>37200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>12600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>7800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>24800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>6500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>9000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-5400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>8000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>6100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>6200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>6400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>10300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>8000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>15000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>11000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>9200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>6400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>8200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>6500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>3300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>7200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>8200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>3000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F27" s="3">
         <v>10600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>37200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>12600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>7800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>24800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>6500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>9000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-5400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>8000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>6100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>6200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>6400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>10300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>8000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>15000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>11000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>9200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>6400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>8200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>6500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>3300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>7200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>8200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>3000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2347,18 +2468,18 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
@@ -2366,25 +2487,31 @@
         <v>0</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>3600</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Z29" s="3">
         <v>5100</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="AA29" s="3">
         <v>-4100</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AB29" s="3">
         <v>-3200</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AC29" s="3">
         <v>26700</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AD29" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2676,186 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F33" s="3">
         <v>10600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>37200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>12600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>7800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>24800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>6500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>9000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-5400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>8000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>6100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>6200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>6400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>10300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>8000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>15000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>11000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>9200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>6400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>8200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>10200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>8400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>3100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>5000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>29600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F35" s="3">
         <v>10600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>37200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>12600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>7800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>24800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>6500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>9000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-5400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>8000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>6100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>6200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>6400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>10300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>8000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>15000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>11000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>9200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>6400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>8200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>10200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>8400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>3100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>5000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>29600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3179,96 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>109600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>110700</v>
+      </c>
+      <c r="F41" s="3">
         <v>92800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>97100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>81600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>86000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>87500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>85000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>79100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>88500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>97600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>95500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>93700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>122900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>115100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>98400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>79100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>85300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>83100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>80000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>83400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>101600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>93900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>60200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>56400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>69300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,568 +3347,616 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>50600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>60300</v>
+      </c>
+      <c r="F43" s="3">
         <v>53300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>42500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>45600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>46300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>34500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>37500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>44300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>41300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>45600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>40300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>42100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>21900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>19600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>26300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>28100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>28800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>24500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>30600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>35700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>34500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>32000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>96300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>93200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>20800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>105000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>71500</v>
+      </c>
+      <c r="F44" s="3">
         <v>61800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>57000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>56000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>54100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>51000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>49700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>45100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>47600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>42400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>35700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>36000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>40500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>33100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>30900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>32800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>31200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>33200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>29200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>30100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>30000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>30600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>163800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>159000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>157300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>201300</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>17900</v>
+      </c>
+      <c r="F45" s="3">
         <v>21400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>22000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>23500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>16600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>19500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>17000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>24200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>10900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>13000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>19100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>17100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>15500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>12500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>20000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>24000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>18900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>10800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>12700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>13100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>10800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>7700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>23700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>22300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>262700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>256300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>260400</v>
+      </c>
+      <c r="F46" s="3">
         <v>229300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>218600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>206700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>203100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>192400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>189300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>192800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>188100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>198600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>190700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>188900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>200700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>180300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>175600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>164000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>164200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>151500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>152400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>162300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>177000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>164200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>344000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>330900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>381700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>384200</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>14900</v>
+      </c>
+      <c r="F47" s="3">
         <v>29800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>33200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>18500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>19100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>19300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>20900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>29800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>29000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>25500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>25300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>27400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>24600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>23100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>22400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>23300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>20100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>20000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>18400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>18700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>16300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>27300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>27300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>35900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>31100</v>
       </c>
-      <c r="AB47" s="3" t="s">
+      <c r="AD47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>226000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>224400</v>
+      </c>
+      <c r="F48" s="3">
         <v>221300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>218700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>205000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>202100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>198600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>185100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>179100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>182700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>167000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>154000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>150700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>149500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>141300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>134400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>138300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>124600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>126100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>123600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>119800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>120100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>116300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>132100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>132200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>115100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>124600</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>28100</v>
+      </c>
+      <c r="F49" s="3">
         <v>29000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>29900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>30900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>31800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>32500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>33400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>34300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>35300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>35600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>36300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>37100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>37900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>38300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>39000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>39900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>40500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>41300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>42100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>42900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>43600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>44000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>57300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>58300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>51900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4121,100 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>40300</v>
+      </c>
+      <c r="F52" s="3">
         <v>50800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>47000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>51900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>51200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>46100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>45200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>43200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>41000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>39100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>36600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>31800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>32100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>29800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>27800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>28300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>27700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>27700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>29500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>30500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>32600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>33000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>60600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>63100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>94500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>562100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>568100</v>
+      </c>
+      <c r="F54" s="3">
         <v>560200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>547300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>513000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>507200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>488900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>474000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>479200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>476200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>465900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>443000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>435900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>444800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>412800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>399200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>393800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>377000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>366500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>366000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>374200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>389600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>384900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>621300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>620300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>668000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>664100</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4447,526 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F57" s="3">
         <v>12100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>17400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>11900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>12900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>14500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>10400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>8200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>5600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>14300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>11700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>8500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>10000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>9000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>8000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>8900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>7700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>9700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>9100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>8200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>7600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>8500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>104800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>87100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>7000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>157300</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="E58" s="3">
-        <v>2900</v>
+        <v>3600</v>
       </c>
       <c r="F58" s="3">
         <v>3000</v>
       </c>
       <c r="G58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I58" s="3">
         <v>2500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>10200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>20100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>22100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>5900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>11900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>7800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>4500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>4600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>4700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>10600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>13000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>16100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>16100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>1200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>23500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>32700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>1700</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>27300</v>
+      </c>
+      <c r="F59" s="3">
         <v>28900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>23300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>21500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>30500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>23900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>19900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>17600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>24500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>21300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>21600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>17600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>44200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>43300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>40600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>36100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>29800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>23900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>23800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>16600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>30300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>33600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>57800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>47400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>228100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>44300</v>
+      </c>
+      <c r="F60" s="3">
         <v>44000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>43600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>36400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>46000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>40900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>40400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>45900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>52300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>36600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>39300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>38100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>62000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>52800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>53200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>49600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>42200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>44200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>45900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>40800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>54000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>43200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>186000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>167200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>221800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>229500</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F61" s="3">
         <v>15300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>15500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>22600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>18200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>14500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>21800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>24300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>24400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>22200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>22500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>22600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>17100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>7300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>7500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>7400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>6400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>6800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>14900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>34700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>42000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>57600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>99900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>125300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>94300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>130500</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>80800</v>
+      </c>
+      <c r="F62" s="3">
         <v>85500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>85600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>89500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>90900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>92600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>96100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>99600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>98900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>100700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>81900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>81300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>76300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>69500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>66400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>72500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>77700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>75300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>74200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>73800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>74100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>77100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>104300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>103200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>131600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>107800</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>130400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>141100</v>
+      </c>
+      <c r="F66" s="3">
         <v>144800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>144700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>148500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>155100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>148000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>158300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>169900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>175600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>159400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>143700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>142100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>155400</v>
-      </c>
-      <c r="P66" s="3">
-        <v>129500</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>127000</v>
       </c>
       <c r="R66" s="3">
         <v>129500</v>
       </c>
       <c r="S66" s="3">
+        <v>127000</v>
+      </c>
+      <c r="T66" s="3">
+        <v>129500</v>
+      </c>
+      <c r="U66" s="3">
         <v>126300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>126300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>135000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>149300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>170100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>177900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>390300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>395800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>447700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>467800</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>409100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>404900</v>
+      </c>
+      <c r="F72" s="3">
         <v>392700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>383600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>347900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>336800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>330400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>307000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>301900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>294300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>301000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>294400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>289700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>284900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>279800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>270900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>264200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>250400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>239800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>231800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>226500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>216500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>207400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>248200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>242400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>239400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>214700</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>431700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>427000</v>
+      </c>
+      <c r="F76" s="3">
         <v>415400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>402600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>364500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>352100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>340900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>315700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>309400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>300600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>306500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>299300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>293800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>289400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>283300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>272200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>264300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>250700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>240200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>231000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>224900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>219400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>207100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>231000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>224500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>220300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>196300</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F81" s="3">
         <v>10600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>37200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>12600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>7800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>24800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>6500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>9000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-5400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>8000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>6100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>6200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>6400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>10300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>8000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>15000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>11000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>9200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>6400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>8200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>10200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>8400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>3100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>5000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>29600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6060,41 +6457,47 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="S83" s="3">
-        <v>3700</v>
-      </c>
-      <c r="T83" s="3">
-        <v>3800</v>
       </c>
       <c r="U83" s="3">
         <v>3700</v>
       </c>
       <c r="V83" s="3">
+        <v>3800</v>
+      </c>
+      <c r="W83" s="3">
+        <v>3700</v>
+      </c>
+      <c r="X83" s="3">
         <v>3400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>3200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>4400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>4500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>19300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6920,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>12800</v>
+      </c>
+      <c r="F89" s="3">
         <v>14400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>41600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>7100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>38500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>30200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-5200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>15200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>18600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-31100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>5500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>25200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>22600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>15800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>20200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>26700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-8000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>14200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>31100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>40700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-36400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>99400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +7042,96 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-17100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-20300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-4600</v>
       </c>
-      <c r="G91" s="3">
-        <v>30200</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="J91" s="3">
         <v>-19400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-11300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-4900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>5600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-7000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-7400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-5400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-11400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-1700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-4300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-6300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-5500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-6700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-2500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-6500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-8100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-26300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-10300</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7296,100 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-17100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-17600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-4500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-9100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-19000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-11200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-4800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-24800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-6500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-9300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-5300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-11500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-4200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-5000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-5100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-6200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-2100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-4400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-4600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-3800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-9800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,22 +7418,24 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="E96" s="3">
         <v>-1500</v>
       </c>
       <c r="F96" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="G96" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="H96" s="3">
         <v>-1400</v>
@@ -6980,19 +7447,19 @@
         <v>-1400</v>
       </c>
       <c r="K96" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="L96" s="3">
         <v>-1400</v>
       </c>
       <c r="M96" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1400</v>
       </c>
-      <c r="N96" s="3">
-        <v>-1300</v>
-      </c>
       <c r="O96" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="P96" s="3">
         <v>-1300</v>
@@ -7001,13 +7468,13 @@
         <v>-1300</v>
       </c>
       <c r="R96" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="S96" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1200</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-1100</v>
       </c>
       <c r="U96" s="3">
         <v>-1100</v>
@@ -7019,22 +7486,28 @@
         <v>-1100</v>
       </c>
       <c r="X96" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-1900</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="AA96" s="3">
-        <v>-7300</v>
       </c>
       <c r="AB96" s="3">
         <v>-1800</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>-1800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7758,100 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-8500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-17000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-13100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-3600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>20900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-6700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-7500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>7300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>13800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-1600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-1400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-8600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-11900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-24000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-8100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-2200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>12600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-34200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>21500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-55700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-17900</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7422,95 +7919,107 @@
         <v>0</v>
       </c>
       <c r="Y101" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="Z101" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AA101" s="3">
         <v>-300</v>
       </c>
       <c r="AB101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4400</v>
+        <v>-1100</v>
       </c>
       <c r="E102" s="3">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="F102" s="3">
         <v>-4400</v>
       </c>
       <c r="G102" s="3">
+        <v>15500</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I102" s="3">
         <v>-1500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>5900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-9300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-9100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>2000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-29200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>7800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>16600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>19400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-6200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>2200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>3100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-3500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-18200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>7700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>39100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>4000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-18500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>33600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>21400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>NC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>61400</v>
+      </c>
+      <c r="E8" s="3">
         <v>50100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>63500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>61800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>61400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>55000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>49100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>51700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>45900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>45100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>23100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>32300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>35400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>37600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>26900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>32600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>41400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>40100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>39100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>31400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>33700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>31200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>26400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>21900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>28100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>28300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>111100</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>32400</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>54900</v>
+      </c>
+      <c r="E9" s="3">
         <v>46800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>45000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>44000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>45700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>39200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>36700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>37400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>36900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>37400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>21900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>25500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>31500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>32600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>24100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>26400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>32700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>26700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>25500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>25300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>28800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>25800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>21100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>19500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>23500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>23700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>99000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E10" s="3">
         <v>3300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>18500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>17800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>15700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>15800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>12400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>14300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>13400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>13600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>5400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>5300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2400</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>4600</v>
       </c>
       <c r="AB10" s="3">
         <v>4600</v>
       </c>
       <c r="AC10" s="3">
+        <v>4600</v>
+      </c>
+      <c r="AD10" s="3">
         <v>12100</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,43 +1262,46 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>3900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-30900</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-10300</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>8400</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1301,11 +1321,11 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
@@ -1313,112 +1333,118 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="3">
         <v>1000</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="AC14" s="3">
-        <v>17400</v>
       </c>
       <c r="AD14" s="3">
         <v>17400</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>900</v>
+      </c>
+      <c r="E15" s="3">
         <v>700</v>
-      </c>
-      <c r="E15" s="3">
-        <v>900</v>
       </c>
       <c r="F15" s="3">
         <v>900</v>
       </c>
       <c r="G15" s="3">
+        <v>900</v>
+      </c>
+      <c r="H15" s="3">
         <v>1100</v>
-      </c>
-      <c r="H15" s="3">
-        <v>800</v>
       </c>
       <c r="I15" s="3">
         <v>800</v>
       </c>
       <c r="J15" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K15" s="3">
         <v>900</v>
       </c>
       <c r="L15" s="3">
+        <v>900</v>
+      </c>
+      <c r="M15" s="3">
         <v>1000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>700</v>
-      </c>
-      <c r="O15" s="3">
-        <v>800</v>
       </c>
       <c r="P15" s="3">
         <v>800</v>
       </c>
       <c r="Q15" s="3">
+        <v>800</v>
+      </c>
+      <c r="R15" s="3">
         <v>400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>400</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>600</v>
       </c>
       <c r="AB15" s="3">
         <v>600</v>
       </c>
       <c r="AC15" s="3">
+        <v>600</v>
+      </c>
+      <c r="AD15" s="3">
         <v>2500</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,94 +1472,98 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E17" s="3">
         <v>48300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>48000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>52000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>40100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>38300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>24200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>37200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>36800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>31200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>22900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>30900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>30100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>22300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>23900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>32200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>23700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>23500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>20900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>25900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>21500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>19900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>15000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>18600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>18500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>112700</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1541,85 +1571,88 @@
         <v>1800</v>
       </c>
       <c r="E18" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F18" s="3">
         <v>15500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>46600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>14900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>27600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>8700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>9200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>16400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>15600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>10500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>7800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>9700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>6500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>6900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>9500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>9800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-1600</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,185 +1683,192 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>3100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>300</v>
-      </c>
-      <c r="X20" s="3">
-        <v>-100</v>
       </c>
       <c r="Y20" s="3">
         <v>-100</v>
       </c>
       <c r="Z20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
       <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-700</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E21" s="3">
         <v>11900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>17800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>12000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>45900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>21600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>12100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>28100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>14600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>10500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>11000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>11700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>10400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>21400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>19100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>14900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>11900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>13000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>9600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>10100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>12700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>12900</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>10700</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E22" s="3">
         <v>500</v>
@@ -1849,13 +1889,13 @@
         <v>500</v>
       </c>
       <c r="K22" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L22" s="3">
         <v>400</v>
       </c>
       <c r="M22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N22" s="3">
         <v>300</v>
@@ -1864,10 +1904,10 @@
         <v>300</v>
       </c>
       <c r="P22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q22" s="3">
         <v>400</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>200</v>
       </c>
       <c r="R22" s="3">
         <v>200</v>
@@ -1879,13 +1919,13 @@
         <v>200</v>
       </c>
       <c r="U22" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="V22" s="3">
         <v>400</v>
       </c>
       <c r="W22" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="X22" s="3">
         <v>600</v>
@@ -1894,7 +1934,7 @@
         <v>600</v>
       </c>
       <c r="Z22" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="AA22" s="3">
         <v>900</v>
@@ -1903,185 +1943,194 @@
         <v>900</v>
       </c>
       <c r="AC22" s="3">
+        <v>900</v>
+      </c>
+      <c r="AD22" s="3">
         <v>4300</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E23" s="3">
         <v>4400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>16200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>11500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>45100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>14900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>11300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>27400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>11600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>9800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>17300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>14900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>10700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>7600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>9000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>5800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>6000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>8600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>8800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-6700</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-13700</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>2600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-9600</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E26" s="3">
         <v>5700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>13800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>10600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>37200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>12600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>7800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>24800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>9000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>10300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>8000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>15000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>11000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>9200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>6400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>8200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>6500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>3300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>7200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>8200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>3000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E27" s="3">
         <v>5700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>13800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>10600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>37200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>12600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>7800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>24800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>9000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>8000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>10300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>8000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>15000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>11000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>9200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>6400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>8200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>6500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>3300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>7200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>8200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>3000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2474,14 +2535,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
@@ -2493,25 +2554,28 @@
         <v>0</v>
       </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>3600</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>5100</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-4100</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>-3200</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>26700</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-300</v>
-      </c>
-      <c r="X32" s="3">
-        <v>100</v>
       </c>
       <c r="Y32" s="3">
         <v>100</v>
       </c>
       <c r="Z32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
       <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
         <v>100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>700</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E33" s="3">
         <v>5700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>13800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>10600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>37200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>12600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>24800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>8000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>10300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>8000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>15000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>11000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>9200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>6400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>8200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>10200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>8400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>3100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>5000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>29600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E35" s="3">
         <v>5700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>13800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>10600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>37200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>12600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>24800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>8000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>10300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>8000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>15000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>11000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>9200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>6400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>8200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>10200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>8400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>3100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>5000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>29600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>117000</v>
+      </c>
+      <c r="E41" s="3">
         <v>109600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>110700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>92800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>97100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>81600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>86000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>87500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>85000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>79100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>88500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>97600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>95500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>93700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>122900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>115100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>98400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>79100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>85300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>83100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>80000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>83400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>101600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>93900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>60200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>56400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>69300</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,610 +3443,634 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>59900</v>
+      </c>
+      <c r="E43" s="3">
         <v>50600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>60300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>53300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>42500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>45600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>46300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>34500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>37500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>44300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>41300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>45600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>40300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>42100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>21900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>19600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>26300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>28100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>28800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>24500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>30600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>35700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>34500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>32000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>96300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>93200</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>20800</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>105000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>65200</v>
+      </c>
+      <c r="E44" s="3">
         <v>71200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>71500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>61800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>57000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>56000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>54100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>51000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>49700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>45100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>47600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>42400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>35700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>36000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>40500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>33100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>30900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>32800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>31200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>33200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>29200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>30100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>30000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>30600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>163800</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>159000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>157300</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>201300</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E45" s="3">
         <v>24800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>21400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>22000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>23500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>17000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>24200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>19100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>17100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>15500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>12500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>20000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>24000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>18900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>10800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>12700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>13100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>10800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>7700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>23700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>22300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>262700</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>262100</v>
+      </c>
+      <c r="E46" s="3">
         <v>256300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>260400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>229300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>218600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>206700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>203100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>192400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>189300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>192800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>188100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>198600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>190700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>188900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>200700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>180300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>175600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>164000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>164200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>151500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>152400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>162300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>177000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>164200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>344000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>330900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>381700</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>384200</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E47" s="3">
         <v>13900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>14900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>29800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>33200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>18500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>19100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>19300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>20900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>29800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>29000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>25500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>25300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>27400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>24600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>23100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>22400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>23300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>20100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>20000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>18400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>18700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>16300</v>
-      </c>
-      <c r="Z47" s="3">
-        <v>27300</v>
       </c>
       <c r="AA47" s="3">
         <v>27300</v>
       </c>
       <c r="AB47" s="3">
+        <v>27300</v>
+      </c>
+      <c r="AC47" s="3">
         <v>35900</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>31100</v>
       </c>
-      <c r="AD47" s="3" t="s">
+      <c r="AE47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>230400</v>
+      </c>
+      <c r="E48" s="3">
         <v>226000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>224400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>221300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>218700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>205000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>202100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>198600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>185100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>179100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>182700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>167000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>154000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>150700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>149500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>141300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>134400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>138300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>124600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>126100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>123600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>119800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>120100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>116300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>132100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>132200</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>115100</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>124600</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E49" s="3">
         <v>27300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>28100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>29000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>29900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>30900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>31800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>32500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>33400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>34300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>35300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>35600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>36300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>37100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>37900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>38300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>39000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>39900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>40500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>41300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>42100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>42900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>43600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>44000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>57300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>58300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>51900</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E52" s="3">
         <v>38600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>40300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>50800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>47000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>51900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>51200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>46100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>45200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>43200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>41000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>39100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>36600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>31800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>32100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>29800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>27800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>28300</v>
-      </c>
-      <c r="U52" s="3">
-        <v>27700</v>
       </c>
       <c r="V52" s="3">
         <v>27700</v>
       </c>
       <c r="W52" s="3">
+        <v>27700</v>
+      </c>
+      <c r="X52" s="3">
         <v>29500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>30500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>32600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>33000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>60600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>63100</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>94500</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>571500</v>
+      </c>
+      <c r="E54" s="3">
         <v>562100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>568100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>560200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>547300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>513000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>507200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>488900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>474000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>479200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>476200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>465900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>443000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>435900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>444800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>412800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>399200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>393800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>377000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>366500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>366000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>374200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>389600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>384900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>621300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>620300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>668000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>664100</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,524 +4579,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E57" s="3">
         <v>11500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>13300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>12100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>17400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>12900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>14500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>14300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>8900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>7700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>9700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>9100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>8200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>7600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>8500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>104800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>87100</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>7000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>157300</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E58" s="3">
         <v>2900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>2500</v>
       </c>
       <c r="J58" s="3">
         <v>2500</v>
       </c>
       <c r="K58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L58" s="3">
         <v>10200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>20100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>22100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>11900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>10600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>13000</v>
-      </c>
-      <c r="X58" s="3">
-        <v>16100</v>
       </c>
       <c r="Y58" s="3">
         <v>16100</v>
       </c>
       <c r="Z58" s="3">
+        <v>16100</v>
+      </c>
+      <c r="AA58" s="3">
         <v>1200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>23500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>32700</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1700</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E59" s="3">
         <v>19600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>27300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>28900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>23300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>21500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>30500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>23900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>24500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>21300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>21600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>44200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>43300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>40600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>36100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>29800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>23900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>23800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>16600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>30300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>33600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>57800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>47400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>228100</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E60" s="3">
         <v>34000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>44300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>44000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>43600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>36400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>46000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>40900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>40400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>45900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>52300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>36600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>39300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>38100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>62000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>52800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>53200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>49600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>42200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>44200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>45900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>40800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>54000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>43200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>186000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>167200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>221800</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>229500</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E61" s="3">
         <v>17400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>16000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>15300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>15500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>22600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>18200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>14500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>21800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>24300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>24400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>22200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>22500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>22600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>17100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>14900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>34700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>42000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>57600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>99900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>125300</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>94300</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>130500</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>80500</v>
+      </c>
+      <c r="E62" s="3">
         <v>79000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>80800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>85500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>85600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>89500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>90900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>92600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>96100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>99600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>98900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>100700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>81900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>81300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>76300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>69500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>66400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>72500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>77700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>75300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>74200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>73800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>74100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>77100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>104300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>103200</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>131600</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>107800</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>138100</v>
+      </c>
+      <c r="E66" s="3">
         <v>130400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>141100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>144800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>144700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>148500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>155100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>148000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>158300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>169900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>175600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>159400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>143700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>142100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>155400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>129500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>127000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>129500</v>
-      </c>
-      <c r="U66" s="3">
-        <v>126300</v>
       </c>
       <c r="V66" s="3">
         <v>126300</v>
       </c>
       <c r="W66" s="3">
+        <v>126300</v>
+      </c>
+      <c r="X66" s="3">
         <v>135000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>149300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>170100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>177900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>390300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>395800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>447700</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>467800</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>409900</v>
+      </c>
+      <c r="E72" s="3">
         <v>409100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>404900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>392700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>383600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>347900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>336800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>330400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>307000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>301900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>294300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>301000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>294400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>289700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>284900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>279800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>270900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>264200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>250400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>239800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>231800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>226500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>216500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>207400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>248200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>242400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>239400</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>214700</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>433400</v>
+      </c>
+      <c r="E76" s="3">
         <v>431700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>427000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>415400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>402600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>364500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>352100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>340900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>315700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>309400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>300600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>306500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>299300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>293800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>289400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>283300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>272200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>264300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>250700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>240200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>231000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>224900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>219400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>207100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>231000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>224500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>220300</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>196300</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E81" s="3">
         <v>5700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>13800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>10600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>37200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>12600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>24800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>8000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>10300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>8000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>15000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>11000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>9200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>6400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>8200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>10200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>8400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>3100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>5000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>29600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6463,41 +6662,44 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>3700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>3400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>3200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>4400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>4500</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>19300</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E89" s="3">
         <v>6300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>12800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>14400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>41600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>38500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>30200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>15200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>18600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-31100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>25200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>22600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>15800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>20200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>26700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-8000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>14200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>31100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>40700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-36400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>99400</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-12400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-17100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-20300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-19400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>5600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-5500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-6700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-6500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-8100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-26300</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-10300</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>6100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-17100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-17600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-19000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-24800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-11500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-6200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-4400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-4600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-3800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-9800</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7429,7 +7663,7 @@
         <v>-1600</v>
       </c>
       <c r="E96" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="F96" s="3">
         <v>-1500</v>
@@ -7438,7 +7672,7 @@
         <v>-1500</v>
       </c>
       <c r="H96" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="I96" s="3">
         <v>-1400</v>
@@ -7453,16 +7687,16 @@
         <v>-1400</v>
       </c>
       <c r="M96" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1300</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-1400</v>
       </c>
       <c r="O96" s="3">
         <v>-1400</v>
       </c>
       <c r="P96" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="Q96" s="3">
         <v>-1300</v>
@@ -7474,10 +7708,10 @@
         <v>-1300</v>
       </c>
       <c r="T96" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="U96" s="3">
         <v>-1200</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-1100</v>
       </c>
       <c r="V96" s="3">
         <v>-1100</v>
@@ -7492,22 +7726,25 @@
         <v>-1100</v>
       </c>
       <c r="Z96" s="3">
-        <v>-1900</v>
+        <v>-1100</v>
       </c>
       <c r="AA96" s="3">
         <v>-1900</v>
       </c>
       <c r="AB96" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-1800</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-7300</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,94 +8007,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-900</v>
+        <v>-3400</v>
       </c>
       <c r="E100" s="3">
         <v>-900</v>
       </c>
       <c r="F100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G100" s="3">
         <v>-1700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-8500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-17000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-13100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>20900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-7500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>7300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>13800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-8600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-11900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-24000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-8100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>12600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-34200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>21500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-55700</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-17900</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7925,101 +8174,107 @@
         <v>0</v>
       </c>
       <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
         <v>-300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>400</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-300</v>
       </c>
-      <c r="AD101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>18000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>15500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-9100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-29200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>7800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>16600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>19400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-6200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>3100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-18200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>7700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>39100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>4000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-18500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>33600</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>21400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>NC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E8" s="3">
         <v>61400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>50100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>63500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>61800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>61400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>55000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>49100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>51700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>45900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>45100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>23100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>32300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>35400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>37600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>26900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>32600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>41400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>40100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>39100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>31400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>33700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>31200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>26400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>21900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>28100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>28300</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>111100</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>32400</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E9" s="3">
         <v>54900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>46800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>45000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>44000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>45700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>39200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>36700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>37400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>36900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>37400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>21900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>25500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>31500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>32600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>24100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>26400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>32700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>26700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>25500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>25300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>28800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>25800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>21100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>19500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>23500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>23700</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>99000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E10" s="3">
         <v>6500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>18500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>17800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>15700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>15800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>12400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>13400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>13600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>5400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>5300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2400</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>4600</v>
       </c>
       <c r="AC10" s="3">
         <v>4600</v>
       </c>
       <c r="AD10" s="3">
+        <v>4600</v>
+      </c>
+      <c r="AE10" s="3">
         <v>12100</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,46 +1282,49 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>3900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-30900</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-10300</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>8400</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1324,11 +1344,11 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
@@ -1336,115 +1356,121 @@
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="3">
         <v>1000</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="AD14" s="3">
-        <v>17400</v>
       </c>
       <c r="AE14" s="3">
         <v>17400</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>600</v>
+      </c>
+      <c r="E15" s="3">
         <v>900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>700</v>
-      </c>
-      <c r="F15" s="3">
-        <v>900</v>
       </c>
       <c r="G15" s="3">
         <v>900</v>
       </c>
       <c r="H15" s="3">
+        <v>900</v>
+      </c>
+      <c r="I15" s="3">
         <v>1100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>800</v>
       </c>
       <c r="J15" s="3">
         <v>800</v>
       </c>
       <c r="K15" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L15" s="3">
         <v>900</v>
       </c>
       <c r="M15" s="3">
+        <v>900</v>
+      </c>
+      <c r="N15" s="3">
         <v>1000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>700</v>
-      </c>
-      <c r="P15" s="3">
-        <v>800</v>
       </c>
       <c r="Q15" s="3">
         <v>800</v>
       </c>
       <c r="R15" s="3">
+        <v>800</v>
+      </c>
+      <c r="S15" s="3">
         <v>400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>700</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>500</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>400</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>600</v>
       </c>
       <c r="AC15" s="3">
         <v>600</v>
       </c>
       <c r="AD15" s="3">
+        <v>600</v>
+      </c>
+      <c r="AE15" s="3">
         <v>2500</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>52800</v>
+      </c>
+      <c r="E17" s="3">
         <v>59600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>48300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>48000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>52000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>40100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>38300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>24200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>37200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>36800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>31200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>22900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>30900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>30100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>22300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>23900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>32200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>23700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>23500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>20900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>25900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>21500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>19900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>15000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>18600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>18500</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>112700</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1800</v>
+        <v>-6300</v>
       </c>
       <c r="E18" s="3">
         <v>1800</v>
       </c>
       <c r="F18" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G18" s="3">
         <v>15500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>46600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>14900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>27600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>9400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>8700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>9200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>16400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>15600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>10500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>7800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>9700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>6500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>6900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>9500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>9800</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-1600</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,186 +1717,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="3">
         <v>2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>300</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>-100</v>
       </c>
       <c r="Z20" s="3">
         <v>-100</v>
       </c>
       <c r="AA20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
       <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-100</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-700</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>11900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>17800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>12000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>45900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>21600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>12100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>28100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>14600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>10500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>11000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>11700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>10400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>21400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>19100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>14900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>11900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>13000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>9600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>10100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>12700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>12900</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>10700</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1871,7 +1911,7 @@
         <v>600</v>
       </c>
       <c r="E22" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F22" s="3">
         <v>500</v>
@@ -1892,13 +1932,13 @@
         <v>500</v>
       </c>
       <c r="L22" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M22" s="3">
         <v>400</v>
       </c>
       <c r="N22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O22" s="3">
         <v>300</v>
@@ -1907,10 +1947,10 @@
         <v>300</v>
       </c>
       <c r="Q22" s="3">
+        <v>300</v>
+      </c>
+      <c r="R22" s="3">
         <v>400</v>
-      </c>
-      <c r="R22" s="3">
-        <v>200</v>
       </c>
       <c r="S22" s="3">
         <v>200</v>
@@ -1922,13 +1962,13 @@
         <v>200</v>
       </c>
       <c r="V22" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="W22" s="3">
         <v>400</v>
       </c>
       <c r="X22" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Y22" s="3">
         <v>600</v>
@@ -1937,7 +1977,7 @@
         <v>600</v>
       </c>
       <c r="AA22" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="AB22" s="3">
         <v>900</v>
@@ -1946,191 +1986,200 @@
         <v>900</v>
       </c>
       <c r="AD22" s="3">
+        <v>900</v>
+      </c>
+      <c r="AE22" s="3">
         <v>4300</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E23" s="3">
         <v>3300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>16200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>11500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>45100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>14900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>11300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>27400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>9900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>11600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>9800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>17300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>14900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>10700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>7600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>9000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>5800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>6000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>8600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>8800</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-6700</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-13700</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>2600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>600</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-9600</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E26" s="3">
         <v>2500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>13800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>10600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>37200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>12600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>24800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>8000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>10300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>8000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>15000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>11000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>9200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>6400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>8200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>6500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>3300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>7200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>8200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>3000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E27" s="3">
         <v>2500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>13800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>10600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>37200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>12600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>24800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>8000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>10300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>8000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>15000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>11000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>9200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>6400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>8200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>6500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>3300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>7200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>8200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>3000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2538,14 +2599,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
@@ -2557,25 +2618,28 @@
         <v>0</v>
       </c>
       <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
         <v>3600</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>5100</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>-4100</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>-3200</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>26700</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AF29" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>100</v>
       </c>
       <c r="Z32" s="3">
         <v>100</v>
       </c>
       <c r="AA32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
       <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
         <v>100</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>700</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E33" s="3">
         <v>2500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>13800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>10600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>37200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>12600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>24800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>8000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>10300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>8000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>15000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>11000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>9200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>6400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>8200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>10200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>8400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>3100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>5000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>29600</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E35" s="3">
         <v>2500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>13800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>10600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>37200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>12600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>24800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>8000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>10300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>8000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>15000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>11000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>9200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>6400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>8200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>10200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>8400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>3100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>5000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>29600</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,97 +3354,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>128200</v>
+      </c>
+      <c r="E41" s="3">
         <v>117000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>109600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>110700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>92800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>97100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>81600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>86000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>87500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>85000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>79100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>88500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>97600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>95500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>93700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>122900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>115100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>98400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>79100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>85300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>83100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>80000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>83400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>101600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>93900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>60200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>56400</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>69300</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,631 +3536,655 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E43" s="3">
         <v>59900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>50600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>60300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>53300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>42500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>45600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>46300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>34500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>37500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>44300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>41300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>45600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>40300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>42100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>21900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>19600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>26300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>28100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>28800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>24500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>30600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>35700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>34500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>32000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>96300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>93200</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>20800</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>105000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>69200</v>
+      </c>
+      <c r="E44" s="3">
         <v>65200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>71200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>71500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>61800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>57000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>56000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>54100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>51000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>49700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>45100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>47600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>42400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>35700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>36000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>40500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>33100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>30900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>32800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>31200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>33200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>29200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>30100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>30000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>30600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>163800</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>159000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>157300</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>201300</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E45" s="3">
         <v>20000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>24800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>21400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>22000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>23500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>17000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>24200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>13000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>19100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>17100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>15500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>12500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>20000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>24000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>18900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>10800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>12700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>13100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>10800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>7700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>23700</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>22300</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>262700</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>258100</v>
+      </c>
+      <c r="E46" s="3">
         <v>262100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>256300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>260400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>229300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>218600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>206700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>203100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>192400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>189300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>192800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>188100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>198600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>190700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>188900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>200700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>180300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>175600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>164000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>164200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>151500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>152400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>162300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>177000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>164200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>344000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>330900</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>381700</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>384200</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E47" s="3">
         <v>11100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>13900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>14900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>29800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>33200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>18500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>19100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>19300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>20900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>29800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>29000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>25500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>25300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>27400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>24600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>23100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>22400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>23300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>20100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>20000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>18400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>18700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>16300</v>
-      </c>
-      <c r="AA47" s="3">
-        <v>27300</v>
       </c>
       <c r="AB47" s="3">
         <v>27300</v>
       </c>
       <c r="AC47" s="3">
+        <v>27300</v>
+      </c>
+      <c r="AD47" s="3">
         <v>35900</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>31100</v>
       </c>
-      <c r="AE47" s="3" t="s">
+      <c r="AF47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>244300</v>
+      </c>
+      <c r="E48" s="3">
         <v>230400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>226000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>224400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>221300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>218700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>205000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>202100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>198600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>185100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>179100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>182700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>167000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>154000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>150700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>149500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>141300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>134400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>138300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>124600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>126100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>123600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>119800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>120100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>116300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>132100</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>132200</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>115100</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>124600</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E49" s="3">
         <v>26400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>27300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>28100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>29000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>29900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>30900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>31800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>32500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>33400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>34300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>35300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>35600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>36300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>37100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>37900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>38300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>39000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>39900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>40500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>41300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>42100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>42900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>43600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>44000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>57300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>58300</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>51900</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>60100</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E52" s="3">
         <v>41500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>38600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>40300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>50800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>47000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>51900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>51200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>46100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>45200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>43200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>41000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>39100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>36600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>31800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>32100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>29800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>27800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>28300</v>
-      </c>
-      <c r="V52" s="3">
-        <v>27700</v>
       </c>
       <c r="W52" s="3">
         <v>27700</v>
       </c>
       <c r="X52" s="3">
+        <v>27700</v>
+      </c>
+      <c r="Y52" s="3">
         <v>29500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>30500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>32600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>33000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>60600</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>63100</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>94500</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>580900</v>
+      </c>
+      <c r="E54" s="3">
         <v>571500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>562100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>568100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>560200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>547300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>513000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>507200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>488900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>474000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>479200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>476200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>465900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>443000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>435900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>444800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>412800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>399200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>393800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>377000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>366500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>366000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>374200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>389600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>384900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>621300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>620300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>668000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>664100</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,542 +4710,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E57" s="3">
         <v>13100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>13300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>12100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>17400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>12900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>14500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>14300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>10000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>8000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>8900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>7700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>9700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>9100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>8200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>7600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>8500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>104800</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>87100</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>7000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>157300</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E58" s="3">
         <v>3700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>2500</v>
       </c>
       <c r="K58" s="3">
         <v>2500</v>
       </c>
       <c r="L58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M58" s="3">
         <v>10200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>20100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>22100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>11900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>10600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>13000</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>16100</v>
       </c>
       <c r="Z58" s="3">
         <v>16100</v>
       </c>
       <c r="AA58" s="3">
+        <v>16100</v>
+      </c>
+      <c r="AB58" s="3">
         <v>1200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>23500</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>32700</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>1700</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E59" s="3">
         <v>20800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>19600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>27300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>28900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>23300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>21500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>30500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>23900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>24500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>21300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>21600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>44200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>43300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>40600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>36100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>29800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>23900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>23800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>16600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>30300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>33600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>57800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>47400</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>228100</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>60900</v>
+      </c>
+      <c r="E60" s="3">
         <v>37500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>34000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>44300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>44000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>43600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>36400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>46000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>40900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>40400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>45900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>52300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>36600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>39300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>38100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>62000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>52800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>53200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>49600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>42200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>44200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>45900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>40800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>54000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>43200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>186000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>167200</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>221800</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>229500</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E61" s="3">
         <v>20100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>17400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>16000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>15300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>15500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>22600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>18200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>21800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>24300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>24400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>22200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>22500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>22600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>17100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>6800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>14900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>34700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>42000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>57600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>99900</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>125300</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>94300</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>130500</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>72600</v>
+      </c>
+      <c r="E62" s="3">
         <v>80500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>79000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>80800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>85500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>85600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>89500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>90900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>92600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>96100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>99600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>98900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>100700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>81900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>81300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>76300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>69500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>66400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>72500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>77700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>75300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>74200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>73800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>74100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>77100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>104300</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>103200</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>131600</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>107800</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>152500</v>
+      </c>
+      <c r="E66" s="3">
         <v>138100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>130400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>141100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>144800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>144700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>148500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>155100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>148000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>158300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>169900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>175600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>159400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>143700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>142100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>155400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>129500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>127000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>129500</v>
-      </c>
-      <c r="V66" s="3">
-        <v>126300</v>
       </c>
       <c r="W66" s="3">
         <v>126300</v>
       </c>
       <c r="X66" s="3">
+        <v>126300</v>
+      </c>
+      <c r="Y66" s="3">
         <v>135000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>149300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>170100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>177900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>390300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>395800</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>447700</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>467800</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>404500</v>
+      </c>
+      <c r="E72" s="3">
         <v>409900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>409100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>404900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>392700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>383600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>347900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>336800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>330400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>307000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>301900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>294300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>301000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>294400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>289700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>284900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>279800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>270900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>264200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>250400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>239800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>231800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>226500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>216500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>207400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>248200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>242400</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>239400</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>214700</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>428400</v>
+      </c>
+      <c r="E76" s="3">
         <v>433400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>431700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>427000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>415400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>402600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>364500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>352100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>340900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>315700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>309400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>300600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>306500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>299300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>293800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>289400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>283300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>272200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>264300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>250700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>240200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>231000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>224900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>219400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>207100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>231000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>224500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>220300</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>196300</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E81" s="3">
         <v>2500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>13800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>10600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>37200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>12600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>24800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>8000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>10300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>8000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>15000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>11000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>9200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>6400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>8200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>10200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>8400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>3100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>5000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>29600</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6665,41 +6864,44 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>3800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>3700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>3400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>3200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>4400</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>4500</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>19300</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>39700</v>
+      </c>
+      <c r="E89" s="3">
         <v>17000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>12800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>14400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>41600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>38500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>30200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>15200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>18600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-31100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>25200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>22600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>15800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>20200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>26700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-8000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>14200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>31100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>40700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-36400</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>99400</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-17100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-20300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-19400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>5600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-11400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-5500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-6700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-6500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-3500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-2300</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-8100</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-26300</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-10300</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>6100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-17100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-17600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-9100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-19000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-24800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-11500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-5100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-6200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-4400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-4600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-2200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-3800</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-9800</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7666,7 +7900,7 @@
         <v>-1600</v>
       </c>
       <c r="F96" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="G96" s="3">
         <v>-1500</v>
@@ -7675,7 +7909,7 @@
         <v>-1500</v>
       </c>
       <c r="I96" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="J96" s="3">
         <v>-1400</v>
@@ -7690,16 +7924,16 @@
         <v>-1400</v>
       </c>
       <c r="N96" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-1400</v>
       </c>
       <c r="P96" s="3">
         <v>-1400</v>
       </c>
       <c r="Q96" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="R96" s="3">
         <v>-1300</v>
@@ -7711,10 +7945,10 @@
         <v>-1300</v>
       </c>
       <c r="U96" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="V96" s="3">
         <v>-1200</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-1100</v>
       </c>
       <c r="W96" s="3">
         <v>-1100</v>
@@ -7729,22 +7963,25 @@
         <v>-1100</v>
       </c>
       <c r="AA96" s="3">
-        <v>-1900</v>
+        <v>-1100</v>
       </c>
       <c r="AB96" s="3">
         <v>-1900</v>
       </c>
       <c r="AC96" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-1800</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-7300</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,97 +8253,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3400</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-900</v>
       </c>
       <c r="F100" s="3">
         <v>-900</v>
       </c>
       <c r="G100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H100" s="3">
         <v>-1700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-8500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-17000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-13100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>20900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>7300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>13800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-5700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-8600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-11900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-24000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-8100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>12600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-34200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>21500</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-55700</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-17900</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8177,104 +8426,110 @@
         <v>0</v>
       </c>
       <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
         <v>-300</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>400</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-300</v>
       </c>
-      <c r="AE101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E102" s="3">
         <v>7400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>18000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>15500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-9300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-9100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-29200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>7800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>16600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>19400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-6200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>3100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-18200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>7700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>39100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>4000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-18500</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>33600</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>21400</v>
       </c>
     </row>
